--- a/doc41/principle/calc/invest-calc.xlsx
+++ b/doc41/principle/calc/invest-calc.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okay-examples\doc41\principle\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61D682A-3CB2-47CD-96E8-221425590363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB32F1B7-FAE2-4E5F-8BC7-2DC85C129C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case1-average" sheetId="1" r:id="rId1"/>
-    <sheet name="case2-cash" sheetId="2" r:id="rId2"/>
-    <sheet name="case3-etf" sheetId="3" r:id="rId3"/>
-    <sheet name="compare123" sheetId="4" r:id="rId4"/>
+    <sheet name="case2-etf" sheetId="5" r:id="rId2"/>
+    <sheet name="case3-cash" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
   <si>
     <t>年通胀率</t>
   </si>
@@ -78,26 +77,35 @@
     <t>股票</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>剩余贷款</t>
   </si>
   <si>
-    <t>Case1-average</t>
+    <t>剩余贷款金额 = 贷款总额 × [(1 + 月利率)^还款月数 - (1 + 月利率)^已还月数] / [(1 + 月利率)^还款月数 - 1]</t>
   </si>
   <si>
-    <t>Case2-cash</t>
+    <t>Comparing</t>
   </si>
   <si>
-    <t>Case3-ETF</t>
+    <t>case1-average</t>
   </si>
   <si>
-    <t>ETF-Average</t>
+    <t>case2-etf</t>
+  </si>
+  <si>
+    <t>case3-cash</t>
+  </si>
+  <si>
+    <t>1-2 eq</t>
+  </si>
+  <si>
+    <t>现有房产</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,8 +126,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="PingFangSC-Medium"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,8 +165,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -162,20 +207,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -456,87 +530,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.4140625" customWidth="1"/>
     <col min="3" max="3" width="5.1640625" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.58203125" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
     <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="10.08203125" customWidth="1"/>
     <col min="10" max="10" width="11.75" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="14" max="14" width="16.4140625" customWidth="1"/>
+    <col min="12" max="12" width="3.08203125" customWidth="1"/>
+    <col min="13" max="13" width="13.25" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12.58203125" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="3">
         <v>0.05</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4">
-        <v>100</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="E1" s="3">
+        <v>200</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="16">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>0.03</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>25</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0.08</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="B4" s="3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>3.3500000000000002E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="L5" s="9"/>
+      <c r="M5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
@@ -559,967 +650,1608 @@
         <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="L6" s="1"/>
+      <c r="M6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="4">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4">
-        <v>90</v>
-      </c>
-      <c r="F7" s="4">
-        <v>100</v>
-      </c>
-      <c r="G7" s="4"/>
+      <c r="D7" s="3">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3">
+        <v>50</v>
+      </c>
+      <c r="F7" s="17">
+        <f>E1+H1</f>
+        <v>350</v>
+      </c>
+      <c r="G7" s="3"/>
       <c r="H7">
         <f>$E$1*$B$5/12*POWER(1+$B$5/12, $E$2*12)/(POWER(1+$B$5/12, $E$2*12)-1)</f>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I7">
         <f>H7*12</f>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J7">
-        <f>(SUM(D7,E7,F7,G7) - I7)*POWER(1-$B$1, C7-1)</f>
-        <v>194.08862013445179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <f>$E$1*(POWER(1+$B$5, $E$2)-POWER(1+$B$5, C7))/(POWER(1+$B$5, $E$2)-1)</f>
+        <v>194.7619128269603</v>
+      </c>
+      <c r="K7">
+        <f>(SUM(D7:G7)-SUM($I$7:I7)-J7)*POWER(1-$B$1, C7-1)</f>
+        <v>243.41532744194328</v>
+      </c>
+      <c r="M7">
+        <f>K7</f>
+        <v>243.41532744194328</v>
+      </c>
+      <c r="N7">
+        <f>'case2-etf'!K7</f>
+        <v>250</v>
+      </c>
+      <c r="O7">
+        <f>'case3-cash'!K7</f>
+        <v>250</v>
+      </c>
+      <c r="P7">
+        <f>M7-N7</f>
+        <v>-6.5846725580567238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
         <f>$D$7*POWER(1+$B$2, C8-1)</f>
-        <v>10.3</v>
+        <v>51.5</v>
       </c>
       <c r="E8">
         <f>$E$7*POWER(1+$B$3, C8-1)</f>
-        <v>97.2</v>
+        <v>54</v>
       </c>
       <c r="F8">
         <f>$F$7*POWER(1+$B$4, C8-1)</f>
-        <v>107</v>
+        <v>371</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:H37" si="0">$E$1*$B$5/12*POWER(1+$B$5/12, $E$2*12)/(POWER(1+$B$5/12, $E$2*12)-1)</f>
-        <v>0.49261498879568394</v>
+        <f t="shared" ref="H8:H36" si="0">$E$1*$B$5/12*POWER(1+$B$5/12, $E$2*12)/(POWER(1+$B$5/12, $E$2*12)-1)</f>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I8">
         <f t="shared" ref="I8:I36" si="1">H8*12</f>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J8">
-        <f>(SUM(D8,E8,F8,G8) - I8)*POWER(1-$B$1, C8-1)</f>
-        <v>198.15918912772918</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <f t="shared" ref="J8:J36" si="2">$E$1*(POWER(1+$B$5, $E$2)-POWER(1+$B$5, C8))/(POWER(1+$B$5, $E$2)-1)</f>
+        <v>189.34834973362376</v>
+      </c>
+      <c r="K8">
+        <f>(SUM(D8:G8)-SUM($I$7:I8)-J8)*POWER(1-$B$1, C8-1)</f>
+        <v>250.33082426397419</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M36" si="3">K8</f>
+        <v>250.33082426397419</v>
+      </c>
+      <c r="N8">
+        <f>'case2-etf'!K8</f>
+        <v>253.64999999999998</v>
+      </c>
+      <c r="O8">
+        <f>'case3-cash'!K8</f>
+        <v>248.89999999999998</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ref="P8:P36" si="4">M8-N8</f>
+        <v>-3.3191757360257839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:D37" si="2">$D$7*POWER(1+$B$2, C9-1)</f>
-        <v>10.609</v>
+        <f t="shared" ref="D9:D36" si="5">$D$7*POWER(1+$B$2, C9-1)</f>
+        <v>53.044999999999995</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:E37" si="3">$E$7*POWER(1+$B$3, C9-1)</f>
-        <v>104.97600000000001</v>
+        <f t="shared" ref="E9:E36" si="6">$E$7*POWER(1+$B$3, C9-1)</f>
+        <v>58.320000000000007</v>
       </c>
       <c r="F9">
         <f>$F$7*POWER(1+$B$4, C9-1)</f>
-        <v>114.49000000000001</v>
+        <v>393.26000000000005</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J9">
-        <f t="shared" ref="J8:J36" si="4">(SUM(D9,E9,F9,G9) - I9)*POWER(1-$B$1, C9-1)</f>
-        <v>202.30766717134276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <f t="shared" si="2"/>
+        <v>183.75343227666045</v>
+      </c>
+      <c r="K9">
+        <f>(SUM(D9:G9)-SUM($I$7:I9)-J9)*POWER(1-$B$1, C9-1)</f>
+        <v>257.57646789837048</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>257.57646789837048</v>
+      </c>
+      <c r="N9">
+        <f>'case2-etf'!K9</f>
+        <v>257.37495000000007</v>
+      </c>
+      <c r="O9">
+        <f>'case3-cash'!K9</f>
+        <v>247.85357499999998</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>0.20151789837041179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
-        <v>10.92727</v>
+        <f t="shared" si="5"/>
+        <v>54.63635</v>
       </c>
       <c r="E10">
-        <f t="shared" si="3"/>
-        <v>113.37408000000002</v>
+        <f t="shared" si="6"/>
+        <v>62.985600000000005</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F9:F38" si="5">$F$7*POWER(1+$B$4, C10-1)</f>
-        <v>122.50430000000001</v>
+        <f t="shared" ref="F10:F36" si="7">$F$7*POWER(1+$B$4, C10-1)</f>
+        <v>416.85560000000009</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J10">
-        <f t="shared" si="4"/>
-        <v>206.53672485652558</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <f t="shared" si="2"/>
+        <v>177.97108508488887</v>
+      </c>
+      <c r="K10">
+        <f>(SUM(D10:G10)-SUM($I$7:I10)-J10)*POWER(1-$B$1, C10-1)</f>
+        <v>265.11357585879824</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>265.11357585879824</v>
+      </c>
+      <c r="N10">
+        <f>'case2-etf'!K10</f>
+        <v>261.17665905000001</v>
+      </c>
+      <c r="O10">
+        <f>'case3-cash'!K10</f>
+        <v>246.8597826125</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>3.9369168087982302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
-        <v>11.255088099999998</v>
+        <f t="shared" si="5"/>
+        <v>56.275440499999995</v>
       </c>
       <c r="E11">
-        <f t="shared" si="3"/>
-        <v>122.44400640000002</v>
+        <f t="shared" si="6"/>
+        <v>68.024448000000021</v>
       </c>
       <c r="F11">
-        <f t="shared" si="5"/>
-        <v>131.079601</v>
+        <f t="shared" si="7"/>
+        <v>441.86693600000012</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J11">
-        <f t="shared" si="4"/>
-        <v>210.8490465049837</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <f t="shared" si="2"/>
+        <v>171.99502926219293</v>
+      </c>
+      <c r="K11">
+        <f>(SUM(D11:G11)-SUM($I$7:I11)-J11)*POWER(1-$B$1, C11-1)</f>
+        <v>272.9068323287824</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>272.9068323287824</v>
+      </c>
+      <c r="N11">
+        <f>'case2-etf'!K11</f>
+        <v>265.05698225775006</v>
+      </c>
+      <c r="O11">
+        <f>'case3-cash'!K11</f>
+        <v>245.91770217765628</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>7.8498500710323356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="C12">
         <v>6</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
-        <v>11.592740742999998</v>
+        <f t="shared" si="5"/>
+        <v>57.963703714999994</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
-        <v>132.23952691200003</v>
+        <f t="shared" si="6"/>
+        <v>73.466403840000012</v>
       </c>
       <c r="F12">
-        <f t="shared" si="5"/>
-        <v>140.25517307000001</v>
+        <f t="shared" si="7"/>
+        <v>468.37895216000015</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J12">
-        <f t="shared" si="4"/>
-        <v>215.24733316188372</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <f t="shared" si="2"/>
+        <v>165.8187755694367</v>
+      </c>
+      <c r="K12">
+        <f>(SUM(D12:G12)-SUM($I$7:I12)-J12)*POWER(1-$B$1, C12-1)</f>
+        <v>280.9240522806553</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>280.9240522806553</v>
+      </c>
+      <c r="N12">
+        <f>'case2-etf'!K12</f>
+        <v>269.01782197940872</v>
+      </c>
+      <c r="O12">
+        <f>'case3-cash'!K12</f>
+        <v>245.02643430640097</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>11.90623030124658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="C13">
         <v>7</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
-        <v>11.940522965289999</v>
+        <f t="shared" si="5"/>
+        <v>59.702614826449995</v>
       </c>
       <c r="E13">
-        <f t="shared" si="3"/>
-        <v>142.81868906496004</v>
+        <f t="shared" si="6"/>
+        <v>79.343716147200027</v>
       </c>
       <c r="F13">
-        <f t="shared" si="5"/>
-        <v>150.07303518489999</v>
+        <f t="shared" si="7"/>
+        <v>496.48168928960018</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J13">
-        <f t="shared" si="4"/>
-        <v>219.7343055272836</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <f t="shared" si="2"/>
+        <v>159.43561737797316</v>
+      </c>
+      <c r="K13">
+        <f>(SUM(D13:G13)-SUM($I$7:I13)-J13)*POWER(1-$B$1, C13-1)</f>
+        <v>289.13596092718012</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>289.13596092718012</v>
+      </c>
+      <c r="N13">
+        <f>'case2-etf'!K13</f>
+        <v>273.0611290411112</v>
+      </c>
+      <c r="O13">
+        <f>'case3-cash'!K13</f>
+        <v>244.18510043345657</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>16.074831886068921</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="C14">
         <v>8</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
-        <v>12.2987386542487</v>
+        <f t="shared" si="5"/>
+        <v>61.493693271243501</v>
       </c>
       <c r="E14">
-        <f t="shared" si="3"/>
-        <v>154.24418419015686</v>
+        <f t="shared" si="6"/>
+        <v>85.691213438976035</v>
       </c>
       <c r="F14">
-        <f t="shared" si="5"/>
-        <v>160.57814764784302</v>
+        <f t="shared" si="7"/>
+        <v>526.2705906469763</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J14">
-        <f t="shared" si="4"/>
-        <v>224.31270683135986</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <f t="shared" si="2"/>
+        <v>152.83862338709551</v>
+      </c>
+      <c r="K14">
+        <f>(SUM(D14:G14)-SUM($I$7:I14)-J14)*POWER(1-$B$1, C14-1)</f>
+        <v>297.51598756522094</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>297.51598756522094</v>
+      </c>
+      <c r="N14">
+        <f>'case2-etf'!K14</f>
+        <v>277.18890399224966</v>
+      </c>
+      <c r="O14">
+        <f>'case3-cash'!K14</f>
+        <v>243.39284238003299</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>20.327083572971276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="C15">
         <v>9</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
-        <v>12.667700813876159</v>
+        <f t="shared" si="5"/>
+        <v>63.338504069380797</v>
       </c>
       <c r="E15">
-        <f t="shared" si="3"/>
-        <v>166.5837189253694</v>
+        <f t="shared" si="6"/>
+        <v>92.546510514094109</v>
       </c>
       <c r="F15">
-        <f t="shared" si="5"/>
-        <v>171.81861798319201</v>
+        <f t="shared" si="7"/>
+        <v>557.84682608579476</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J15">
-        <f t="shared" si="4"/>
-        <v>228.98530565857149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <f t="shared" si="2"/>
+        <v>146.02063009752351</v>
+      </c>
+      <c r="K15">
+        <f>(SUM(D15:G15)-SUM($I$7:I15)-J15)*POWER(1-$B$1, C15-1)</f>
+        <v>306.04007292666512</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>306.04007292666512</v>
+      </c>
+      <c r="N15">
+        <f>'case2-etf'!K15</f>
+        <v>281.40319839129012</v>
+      </c>
+      <c r="O15">
+        <f>'case3-cash'!K15</f>
+        <v>242.64882192599927</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>24.636874535375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="C16">
         <v>10</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
-        <v>13.047731838292444</v>
+        <f t="shared" si="5"/>
+        <v>65.238659191462219</v>
       </c>
       <c r="E16">
-        <f t="shared" si="3"/>
-        <v>179.91041643939897</v>
+        <f t="shared" si="6"/>
+        <v>99.950231355221646</v>
       </c>
       <c r="F16">
-        <f t="shared" si="5"/>
-        <v>183.84592124201549</v>
+        <f t="shared" si="7"/>
+        <v>591.31763565094252</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J16">
-        <f t="shared" si="4"/>
-        <v>233.75489872570623</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>138.97423403275084</v>
+      </c>
+      <c r="K16">
+        <f>(SUM(D16:G16)-SUM($I$7:I16)-J16)*POWER(1-$B$1, C16-1)</f>
+        <v>314.68648920440387</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>314.68648920440387</v>
+      </c>
+      <c r="N16">
+        <f>'case2-etf'!K16</f>
+        <v>285.70611612497231</v>
+      </c>
+      <c r="O16">
+        <f>'case3-cash'!K16</f>
+        <v>241.95222039132722</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>28.980373079431558</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16">
       <c r="C17">
         <v>11</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
-        <v>13.439163793441217</v>
+        <f t="shared" si="5"/>
+        <v>67.195818967206094</v>
       </c>
       <c r="E17">
-        <f t="shared" si="3"/>
-        <v>194.3032497545509</v>
+        <f t="shared" si="6"/>
+        <v>107.94624986363939</v>
       </c>
       <c r="F17">
-        <f t="shared" si="5"/>
-        <v>196.71513572895657</v>
+        <f t="shared" si="7"/>
+        <v>626.79669378999915</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J17">
-        <f t="shared" si="4"/>
-        <v>238.62431361856238</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>131.69178369980827</v>
+      </c>
+      <c r="K17">
+        <f>(SUM(D17:G17)-SUM($I$7:I17)-J17)*POWER(1-$B$1, C17-1)</f>
+        <v>323.43567197072986</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>323.43567197072986</v>
+      </c>
+      <c r="N17">
+        <f>'case2-etf'!K17</f>
+        <v>290.09981476175892</v>
+      </c>
+      <c r="O17">
+        <f>'case3-cash'!K17</f>
+        <v>241.30223822660787</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>33.335857208970936</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16">
       <c r="C18">
         <v>12</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
-        <v>13.842338707244455</v>
+        <f t="shared" si="5"/>
+        <v>69.21169353622227</v>
       </c>
       <c r="E18">
-        <f t="shared" si="3"/>
-        <v>209.84750973491498</v>
+        <f t="shared" si="6"/>
+        <v>116.58194985273053</v>
       </c>
       <c r="F18">
-        <f t="shared" si="5"/>
-        <v>210.48519522998356</v>
+        <f t="shared" si="7"/>
+        <v>664.40449541739918</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J18">
-        <f t="shared" si="4"/>
-        <v>243.59641149184594</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>124.16537128071212</v>
+      </c>
+      <c r="K18">
+        <f>(SUM(D18:G18)-SUM($I$7:I18)-J18)*POWER(1-$B$1, C18-1)</f>
+        <v>332.27006325219679</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>332.27006325219679</v>
+      </c>
+      <c r="N18">
+        <f>'case2-etf'!K18</f>
+        <v>294.58650694042467</v>
+      </c>
+      <c r="O18">
+        <f>'case3-cash'!K18</f>
+        <v>240.69809461244574</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>37.683556311772122</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16">
       <c r="C19">
         <v>13</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
-        <v>14.257608868461787</v>
+        <f t="shared" si="5"/>
+        <v>71.288044342308936</v>
       </c>
       <c r="E19">
-        <f t="shared" si="3"/>
-        <v>226.63531051370819</v>
+        <f t="shared" si="6"/>
+        <v>125.90850584094899</v>
       </c>
       <c r="F19">
-        <f t="shared" si="5"/>
-        <v>225.21915889608235</v>
+        <f t="shared" si="7"/>
+        <v>704.26876514244316</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J19">
-        <f t="shared" si="4"/>
-        <v>248.67408973669549</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>116.38682404557625</v>
+      </c>
+      <c r="K19">
+        <f>(SUM(D19:G19)-SUM($I$7:I19)-J19)*POWER(1-$B$1, C19-1)</f>
+        <v>341.17396506895477</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>341.17396506895477</v>
+      </c>
+      <c r="N19">
+        <f>'case2-etf'!K19</f>
+        <v>299.16846179469974</v>
+      </c>
+      <c r="O19">
+        <f>'case3-cash'!K19</f>
+        <v>240.13902706754209</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="4"/>
+        <v>42.005503274255034</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16">
       <c r="C20">
         <v>14</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
-        <v>14.685337134515638</v>
+        <f t="shared" si="5"/>
+        <v>73.426685672578202</v>
       </c>
       <c r="E20">
-        <f t="shared" si="3"/>
-        <v>244.76613535480485</v>
+        <f t="shared" si="6"/>
+        <v>135.98118630822492</v>
       </c>
       <c r="F20">
-        <f t="shared" si="5"/>
-        <v>240.98450001880815</v>
+        <f t="shared" si="7"/>
+        <v>746.52489105098982</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J20">
-        <f t="shared" si="4"/>
-        <v>253.86028462009082</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>108.34769547806334</v>
+      </c>
+      <c r="K20">
+        <f>(SUM(D20:G20)-SUM($I$7:I20)-J20)*POWER(1-$B$1, C20-1)</f>
+        <v>350.13340278799456</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>350.13340278799456</v>
+      </c>
+      <c r="N20">
+        <f>'case2-etf'!K20</f>
+        <v>303.84800641490278</v>
+      </c>
+      <c r="O20">
+        <f>'case3-cash'!K20</f>
+        <v>239.62429106527875</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="4"/>
+        <v>46.285396373091771</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16">
       <c r="C21">
         <v>15</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
-        <v>15.125897248551111</v>
+        <f t="shared" si="5"/>
+        <v>75.629486242755547</v>
       </c>
       <c r="E21">
-        <f t="shared" si="3"/>
-        <v>264.34742618318927</v>
+        <f t="shared" si="6"/>
+        <v>146.85968121288292</v>
       </c>
       <c r="F21">
-        <f t="shared" si="5"/>
-        <v>257.85341502012471</v>
+        <f t="shared" si="7"/>
+        <v>791.3163845140491</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J21">
-        <f t="shared" si="4"/>
-        <v>259.15797390025392</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>100.03925610353879</v>
+      </c>
+      <c r="K21">
+        <f>(SUM(D21:G21)-SUM($I$7:I21)-J21)*POWER(1-$B$1, C21-1)</f>
+        <v>359.13599767874354</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>359.13599767874354</v>
+      </c>
+      <c r="N21">
+        <f>'case2-etf'!K21</f>
+        <v>308.62752734752587</v>
+      </c>
+      <c r="O21">
+        <f>'case3-cash'!K21</f>
+        <v>239.15315965862189</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="4"/>
+        <v>50.508470331217666</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16">
       <c r="C22">
         <v>16</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
-        <v>15.579674166007644</v>
+        <f t="shared" si="5"/>
+        <v>77.898370830038218</v>
       </c>
       <c r="E22">
-        <f t="shared" si="3"/>
-        <v>285.49522027784445</v>
+        <f t="shared" si="6"/>
+        <v>158.60845570991358</v>
       </c>
       <c r="F22">
-        <f t="shared" si="5"/>
-        <v>275.90315407153344</v>
+        <f t="shared" si="7"/>
+        <v>838.79536758489235</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J22">
-        <f t="shared" si="4"/>
-        <v>264.57017942201543</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>91.452484009967563</v>
+      </c>
+      <c r="K22">
+        <f>(SUM(D22:G22)-SUM($I$7:I22)-J22)*POWER(1-$B$1, C22-1)</f>
+        <v>368.17084809619223</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>368.17084809619223</v>
+      </c>
+      <c r="N22">
+        <f>'case2-etf'!K22</f>
+        <v>313.50947213375809</v>
+      </c>
+      <c r="O22">
+        <f>'case3-cash'!K22</f>
+        <v>238.72492311316691</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="4"/>
+        <v>54.661375962434136</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16">
       <c r="C23">
         <v>17</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
-        <v>16.04706439098787</v>
+        <f t="shared" si="5"/>
+        <v>80.235321954939351</v>
       </c>
       <c r="E23">
-        <f t="shared" si="3"/>
-        <v>308.33483790007199</v>
+        <f t="shared" si="6"/>
+        <v>171.29713216670666</v>
       </c>
       <c r="F23">
-        <f t="shared" si="5"/>
-        <v>295.21637485654077</v>
+        <f t="shared" si="7"/>
+        <v>889.12308963998566</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J23">
-        <f t="shared" si="4"/>
-        <v>270.09996969598802</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>82.578055051261785</v>
+      </c>
+      <c r="K23">
+        <f>(SUM(D23:G23)-SUM($I$7:I23)-J23)*POWER(1-$B$1, C23-1)</f>
+        <v>377.22841875132013</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>377.22841875132013</v>
+      </c>
+      <c r="N23">
+        <f>'case2-etf'!K23</f>
+        <v>318.4963508879585</v>
+      </c>
+      <c r="O23">
+        <f>'case3-cash'!K23</f>
+        <v>238.33888854814955</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="4"/>
+        <v>58.732067863361635</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16">
       <c r="C24">
         <v>18</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
-        <v>16.528476322717506</v>
+        <f t="shared" si="5"/>
+        <v>82.642381613587531</v>
       </c>
       <c r="E24">
-        <f t="shared" si="3"/>
-        <v>333.00162493207773</v>
+        <f t="shared" si="6"/>
+        <v>185.00090274004319</v>
       </c>
       <c r="F24">
-        <f t="shared" si="5"/>
-        <v>315.8815210964986</v>
+        <f t="shared" si="7"/>
+        <v>942.47047501838495</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J24">
-        <f t="shared" si="4"/>
-        <v>275.7504624652687</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>73.40633272243933</v>
+      </c>
+      <c r="K24">
+        <f>(SUM(D24:G24)-SUM($I$7:I24)-J24)*POWER(1-$B$1, C24-1)</f>
+        <v>386.30043756117647</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>386.30043756117647</v>
+      </c>
+      <c r="N24">
+        <f>'case2-etf'!K24</f>
+        <v>323.59073791711933</v>
+      </c>
+      <c r="O24">
+        <f>'case3-cash'!K24</f>
+        <v>237.99437958525351</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="4"/>
+        <v>62.709699644057139</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16">
       <c r="C25">
         <v>19</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
-        <v>17.024330612399034</v>
+        <f t="shared" si="5"/>
+        <v>85.121653061995161</v>
       </c>
       <c r="E25">
-        <f t="shared" si="3"/>
-        <v>359.64175492664401</v>
+        <f t="shared" si="6"/>
+        <v>199.80097495924667</v>
       </c>
       <c r="F25">
-        <f t="shared" si="5"/>
-        <v>337.99322757325353</v>
+        <f t="shared" si="7"/>
+        <v>999.01870351948799</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J25">
-        <f t="shared" si="4"/>
-        <v>281.5248272632781</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>63.927357695601323</v>
+      </c>
+      <c r="K25">
+        <f>(SUM(D25:G25)-SUM($I$7:I25)-J25)*POWER(1-$B$1, C25-1)</f>
+        <v>395.37979960162352</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>395.37979960162352</v>
+      </c>
+      <c r="N25">
+        <f>'case2-etf'!K25</f>
+        <v>328.7952733823808</v>
+      </c>
+      <c r="O25">
+        <f>'case3-cash'!K25</f>
+        <v>237.69073600504601</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>66.584526219242719</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16">
       <c r="C26" s="1">
         <v>20</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="2"/>
-        <v>17.535060530771002</v>
+        <f t="shared" si="5"/>
+        <v>87.675302653855013</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="3"/>
-        <v>388.41309532077554</v>
+        <f t="shared" si="6"/>
+        <v>215.78505295598643</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="5"/>
-        <v>361.65275350338129</v>
+        <f t="shared" si="7"/>
+        <v>1058.9598257306575</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
-      </c>
-      <c r="J26" s="1">
-        <f t="shared" si="4"/>
-        <v>287.42628796624075</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10">
+        <v>11.822759731096415</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>54.130837005364235</v>
+      </c>
+      <c r="K26">
+        <f>(SUM(D26:G26)-SUM($I$7:I26)-J26)*POWER(1-$B$1, C26-1)</f>
+        <v>404.46047771464663</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>404.46047771464663</v>
+      </c>
+      <c r="N26">
+        <f>'case2-etf'!K26</f>
+        <v>334.11266500369504</v>
+      </c>
+      <c r="O26">
+        <f>'case3-cash'!K26</f>
+        <v>237.42731341087907</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="4"/>
+        <v>70.347812710951587</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16">
       <c r="C27">
         <v>21</v>
       </c>
       <c r="D27">
-        <f t="shared" si="2"/>
-        <v>18.061112346694131</v>
+        <f t="shared" si="5"/>
+        <v>90.305561733470668</v>
       </c>
       <c r="E27">
-        <f t="shared" si="3"/>
-        <v>419.48614294643761</v>
+        <f t="shared" si="6"/>
+        <v>233.04785719246533</v>
       </c>
       <c r="F27">
-        <f t="shared" si="5"/>
-        <v>386.96844624861797</v>
+        <f t="shared" si="7"/>
+        <v>1122.4974152744967</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J27">
-        <f t="shared" si="4"/>
-        <v>293.45812534371203</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>44.006132872004194</v>
+      </c>
+      <c r="K27">
+        <f>(SUM(D27:G27)-SUM($I$7:I27)-J27)*POWER(1-$B$1, C27-1)</f>
+        <v>413.53743934929895</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>413.53743934929895</v>
+      </c>
+      <c r="N27">
+        <f>'case2-etf'!K27</f>
+        <v>339.545689808757</v>
+      </c>
+      <c r="O27">
+        <f>'case3-cash'!K27</f>
+        <v>237.2034829000963</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="4"/>
+        <v>73.991749540541946</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16">
       <c r="C28">
         <v>22</v>
       </c>
       <c r="D28">
-        <f t="shared" si="2"/>
-        <v>18.602945717094954</v>
+        <f t="shared" si="5"/>
+        <v>93.014728585474771</v>
       </c>
       <c r="E28">
-        <f t="shared" si="3"/>
-        <v>453.04503438215261</v>
+        <f t="shared" si="6"/>
+        <v>251.69168576786257</v>
       </c>
       <c r="F28">
-        <f t="shared" si="5"/>
-        <v>414.05623748602125</v>
+        <f t="shared" si="7"/>
+        <v>1189.8472601909668</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J28">
-        <f t="shared" si="4"/>
-        <v>299.6236796104638</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>33.542251150176632</v>
+      </c>
+      <c r="K28">
+        <f>(SUM(D28:G28)-SUM($I$7:I28)-J28)*POWER(1-$B$1, C28-1)</f>
+        <v>422.60656924095423</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>422.60656924095423</v>
+      </c>
+      <c r="N28">
+        <f>'case2-etf'!K28</f>
+        <v>345.09719592735547</v>
+      </c>
+      <c r="O28">
+        <f>'case3-cash'!K28</f>
+        <v>237.0186307423883</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="4"/>
+        <v>77.509373313598758</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16">
       <c r="C29">
         <v>23</v>
       </c>
       <c r="D29">
-        <f t="shared" si="2"/>
-        <v>19.161034088607806</v>
+        <f t="shared" si="5"/>
+        <v>95.805170443039017</v>
       </c>
       <c r="E29">
-        <f t="shared" si="3"/>
-        <v>489.28863713272489</v>
+        <f t="shared" si="6"/>
+        <v>271.82702062929161</v>
       </c>
       <c r="F29">
-        <f t="shared" si="5"/>
-        <v>443.0401741100427</v>
+        <f t="shared" si="7"/>
+        <v>1261.2380958024248</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J29">
-        <f t="shared" si="4"/>
-        <v>305.9263529829592</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>22.727829390667818</v>
+      </c>
+      <c r="K29">
+        <f>(SUM(D29:G29)-SUM($I$7:I29)-J29)*POWER(1-$B$1, C29-1)</f>
+        <v>431.664597557609</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>431.664597557609</v>
+      </c>
+      <c r="N29">
+        <f>'case2-etf'!K29</f>
+        <v>350.77010443232228</v>
+      </c>
+      <c r="O29">
+        <f>'case3-cash'!K29</f>
+        <v>236.87215806514337</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="4"/>
+        <v>80.894493125286715</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16">
       <c r="C30">
         <v>24</v>
       </c>
       <c r="D30">
-        <f t="shared" si="2"/>
-        <v>19.73586511126604</v>
+        <f t="shared" si="5"/>
+        <v>98.679325556330198</v>
       </c>
       <c r="E30">
-        <f t="shared" si="3"/>
-        <v>528.43172810334283</v>
+        <f t="shared" si="6"/>
+        <v>293.57318227963492</v>
       </c>
       <c r="F30">
-        <f t="shared" si="5"/>
-        <v>474.05298629774569</v>
+        <f t="shared" si="7"/>
+        <v>1336.9123815505707</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J30">
-        <f t="shared" si="4"/>
-        <v>312.36961224356833</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10">
-      <c r="C31" s="5">
+        <f t="shared" si="2"/>
+        <v>11.551124502215458</v>
+      </c>
+      <c r="K30">
+        <f>(SUM(D30:G30)-SUM($I$7:I30)-J30)*POWER(1-$B$1, C30-1)</f>
+        <v>440.70903316466212</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>440.70903316466212</v>
+      </c>
+      <c r="N30">
+        <f>'case2-etf'!K30</f>
+        <v>356.56741122829447</v>
+      </c>
+      <c r="O30">
+        <f>'case3-cash'!K30</f>
+        <v>236.76348054564539</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="4"/>
+        <v>84.141621936367642</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" s="1" customFormat="1">
+      <c r="C31" s="4">
         <v>25</v>
       </c>
-      <c r="D31" s="5">
-        <f t="shared" si="2"/>
-        <v>20.327941064604019</v>
-      </c>
-      <c r="E31" s="5">
-        <f t="shared" si="3"/>
-        <v>570.70626635161034</v>
-      </c>
-      <c r="F31" s="5">
-        <f t="shared" si="5"/>
-        <v>507.23669533858794</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5">
-        <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
-      </c>
-      <c r="I31" s="5">
-        <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
-      </c>
-      <c r="J31" s="5">
-        <f t="shared" si="4"/>
-        <v>318.95699131560053</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10">
+      <c r="D31" s="4">
+        <f t="shared" si="5"/>
+        <v>101.6397053230201</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="6"/>
+        <v>317.05903686200571</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="7"/>
+        <v>1417.1271244436045</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4">
+        <f t="shared" si="0"/>
+        <v>0.98522997759136788</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="1"/>
+        <v>11.822759731096415</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f>(SUM(D31:G31)-SUM($I$7:I31)-J31)*POWER(1-$B$1, C31-1)</f>
+        <v>449.7381016809112</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="3"/>
+        <v>449.7381016809112</v>
+      </c>
+      <c r="N31" s="1">
+        <f>'case2-etf'!K31</f>
+        <v>362.49218898952688</v>
+      </c>
+      <c r="O31" s="1">
+        <f>'case3-cash'!K31</f>
+        <v>236.69202810996885</v>
+      </c>
+      <c r="P31" s="19">
+        <f t="shared" si="4"/>
+        <v>87.245912691384319</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16">
       <c r="C32">
         <v>26</v>
       </c>
       <c r="D32">
-        <f t="shared" si="2"/>
-        <v>20.937779296542139</v>
+        <f t="shared" si="5"/>
+        <v>104.68889648271069</v>
       </c>
       <c r="E32">
-        <f t="shared" si="3"/>
-        <v>616.36276765973923</v>
+        <f t="shared" si="6"/>
+        <v>342.42375981096626</v>
       </c>
       <c r="F32">
-        <f t="shared" si="5"/>
-        <v>542.74326401228916</v>
+        <f t="shared" si="7"/>
+        <v>1502.154751910221</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J32">
-        <f t="shared" si="4"/>
-        <v>325.69209385216851</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>-11.938087173039774</v>
+      </c>
+      <c r="K32">
+        <f>(SUM(D32:G32)-SUM($I$7:I32)-J32)*POWER(1-$B$1, C32-1)</f>
+        <v>458.75068801860175</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="3"/>
+        <v>458.75068801860175</v>
+      </c>
+      <c r="N32">
+        <f>'case2-etf'!K32</f>
+        <v>368.54758914803637</v>
+      </c>
+      <c r="O32">
+        <f>'case3-cash'!K32</f>
+        <v>236.65724463843168</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="4"/>
+        <v>90.203098870565384</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16">
       <c r="C33">
         <v>27</v>
       </c>
       <c r="D33">
-        <f t="shared" si="2"/>
-        <v>21.565912675438405</v>
+        <f t="shared" si="5"/>
+        <v>107.82956337719203</v>
       </c>
       <c r="E33">
-        <f t="shared" si="3"/>
-        <v>665.67178907251832</v>
+        <f t="shared" si="6"/>
+        <v>369.81766059584351</v>
       </c>
       <c r="F33">
-        <f t="shared" si="5"/>
-        <v>580.73529249314925</v>
+        <f t="shared" si="7"/>
+        <v>1592.2840370248341</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J33">
-        <f t="shared" si="4"/>
-        <v>332.57859584183421</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>-24.276100266376343</v>
+      </c>
+      <c r="K33">
+        <f>(SUM(D33:G33)-SUM($I$7:I33)-J33)*POWER(1-$B$1, C33-1)</f>
+        <v>467.74628311923084</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>467.74628311923084</v>
+      </c>
+      <c r="N33">
+        <f>'case2-etf'!K33</f>
+        <v>374.73684393338067</v>
+      </c>
+      <c r="O33">
+        <f>'case3-cash'!K33</f>
+        <v>236.65858767746244</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="4"/>
+        <v>93.009439185850169</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16">
       <c r="C34">
         <v>28</v>
       </c>
       <c r="D34">
-        <f t="shared" si="2"/>
-        <v>22.212890055701557</v>
+        <f t="shared" si="5"/>
+        <v>111.06445027850778</v>
       </c>
       <c r="E34">
-        <f t="shared" si="3"/>
-        <v>718.92553219831984</v>
+        <f t="shared" si="6"/>
+        <v>399.403073443511</v>
       </c>
       <c r="F34">
-        <f t="shared" si="5"/>
-        <v>621.38676296766994</v>
+        <f t="shared" si="7"/>
+        <v>1687.8210792463246</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J34">
-        <f t="shared" si="4"/>
-        <v>339.62024823393193</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>-37.0274367983397</v>
+      </c>
+      <c r="K34">
+        <f>(SUM(D34:G34)-SUM($I$7:I34)-J34)*POWER(1-$B$1, C34-1)</f>
+        <v>476.7249346145976</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="3"/>
+        <v>476.7249346145976</v>
+      </c>
+      <c r="N34">
+        <f>'case2-etf'!K34</f>
+        <v>381.0632684654164</v>
+      </c>
+      <c r="O34">
+        <f>'case3-cash'!K34</f>
+        <v>236.69552815774531</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="4"/>
+        <v>95.661666149181201</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16">
       <c r="C35">
         <v>29</v>
       </c>
       <c r="D35">
-        <f t="shared" si="2"/>
-        <v>22.879276757372601</v>
+        <f t="shared" si="5"/>
+        <v>114.39638378686301</v>
       </c>
       <c r="E35">
-        <f t="shared" si="3"/>
-        <v>776.43957477418542</v>
+        <f t="shared" si="6"/>
+        <v>431.35531931899192</v>
       </c>
       <c r="F35">
-        <f t="shared" si="5"/>
-        <v>664.88383637540664</v>
+        <f t="shared" si="7"/>
+        <v>1789.0903440011041</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J35">
-        <f t="shared" si="4"/>
-        <v>346.82087958641455</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>-50.205943104123868</v>
+      </c>
+      <c r="K35">
+        <f>(SUM(D35:G35)-SUM($I$7:I35)-J35)*POWER(1-$B$1, C35-1)</f>
+        <v>485.68720115929619</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="3"/>
+        <v>485.68720115929619</v>
+      </c>
+      <c r="N35">
+        <f>'case2-etf'!K35</f>
+        <v>387.53026290141332</v>
+      </c>
+      <c r="O35">
+        <f>'case3-cash'!K35</f>
+        <v>236.76755011850952</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="4"/>
+        <v>98.156938257882871</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16">
       <c r="C36">
         <v>30</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
-        <v>23.565655060093778</v>
+        <f t="shared" si="5"/>
+        <v>117.82827530046889</v>
       </c>
       <c r="E36">
-        <f t="shared" si="3"/>
-        <v>838.55474075612028</v>
+        <f t="shared" si="6"/>
+        <v>465.86374486451126</v>
       </c>
       <c r="F36">
-        <f t="shared" si="5"/>
-        <v>711.42570492168511</v>
+        <f t="shared" si="7"/>
+        <v>1896.4357646411704</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>0.49261498879568394</v>
+        <v>0.98522997759136788</v>
       </c>
       <c r="I36">
         <f t="shared" si="1"/>
-        <v>5.9113798655482075</v>
+        <v>11.822759731096415</v>
       </c>
       <c r="J36">
-        <f t="shared" si="4"/>
-        <v>354.18439873902452</v>
+        <f t="shared" si="2"/>
+        <v>-63.825929371151723</v>
+      </c>
+      <c r="K36">
+        <f>(SUM(D36:G36)-SUM($I$7:I36)-J36)*POWER(1-$B$1, C36-1)</f>
+        <v>494.63411019658412</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="3"/>
+        <v>494.63411019658412</v>
+      </c>
+      <c r="N36">
+        <f>'case2-etf'!K36</f>
+        <v>394.14131463893762</v>
+      </c>
+      <c r="O36">
+        <f>'case3-cash'!K36</f>
+        <v>236.87415043783045</v>
+      </c>
+      <c r="P36" s="20">
+        <f t="shared" si="4"/>
+        <v>100.4927955576465</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M5:P5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5D5F5C-D426-4D1C-B0BC-005D74084A63}">
-  <dimension ref="A1:J36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD238872-0C88-4C0A-B272-5DD870E4672B}">
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.58203125" customWidth="1"/>
     <col min="3" max="3" width="5.1640625" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.58203125" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="9.75" customWidth="1"/>
     <col min="8" max="8" width="12.75" customWidth="1"/>
     <col min="10" max="10" width="11.75" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="14" max="14" width="16.4140625" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11.58203125" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="6">
+        <f>'case1-average'!B1</f>
         <v>0.05</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="E1" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="18">
+        <f>'case1-average'!H1</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
+        <f>'case1-average'!B2</f>
         <v>0.03</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="12">
+        <f>'case1-average'!E2</f>
         <v>25</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
+        <f>'case1-average'!B3</f>
         <v>0.08</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="B4" s="6">
+        <f>'case1-average'!B4</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="13">
+        <f>'case1-average'!B5</f>
         <v>3.3500000000000002E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1542,23 +2274,33 @@
         <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="4">
-        <v>200</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4"/>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>100</v>
+      </c>
+      <c r="F7" s="17">
+        <f>E1+H1</f>
+        <v>150</v>
+      </c>
+      <c r="G7" s="3"/>
       <c r="H7">
         <f>$E$1*$B$5/12*POWER(1+$B$5/12, $E$2*12)/(POWER(1+$B$5/12, $E$2*12)-1)</f>
         <v>0</v>
@@ -1568,28 +2310,34 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <f>(SUM(D7,E7,F7,G7) - I7)*POWER(1-$B$1, C7-1)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <f>$E$1*(POWER(1+$B$5, $E$2)-POWER(1+$B$5, C7))/(POWER(1+$B$5, $E$2)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>(SUM(D7:G7)-SUM($I$7:I7)-J7)*POWER(1-$B$1, C7-1)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
         <f>$D$7*POWER(1+$B$2, C8-1)</f>
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f>$E$7*POWER(1+$B$3, C8-1)</f>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="F8">
         <f>$F$7*POWER(1+$B$4, C8-1)</f>
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:H37" si="0">$E$1*$B$5/12*POWER(1+$B$5/12, $E$2*12)/(POWER(1+$B$5/12, $E$2*12)-1)</f>
+        <f t="shared" ref="H8:H36" si="0">$E$1*$B$5/12*POWER(1+$B$5/12, $E$2*12)/(POWER(1+$B$5/12, $E$2*12)-1)</f>
         <v>0</v>
       </c>
       <c r="I8">
@@ -1597,25 +2345,31 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <f>(SUM(D8,E8,F8,G8) - I8)*POWER(1-$B$1, C8-1)</f>
-        <v>195.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <f t="shared" ref="J8:J36" si="2">$E$1*(POWER(1+$B$5, $E$2)-POWER(1+$B$5, C8))/(POWER(1+$B$5, $E$2)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>(SUM(D8:G8)-SUM($I$7:I8)-J8)*POWER(1-$B$1, C8-1)</f>
+        <v>253.64999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:D36" si="2">$D$7*POWER(1+$B$2, C9-1)</f>
-        <v>212.17999999999998</v>
+        <f t="shared" ref="D9:D36" si="3">$D$7*POWER(1+$B$2, C9-1)</f>
+        <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:E37" si="3">$E$7*POWER(1+$B$3, C9-1)</f>
-        <v>0</v>
+        <f t="shared" ref="E9:E36" si="4">$E$7*POWER(1+$B$3, C9-1)</f>
+        <v>116.64000000000001</v>
       </c>
       <c r="F9">
         <f>$F$7*POWER(1+$B$4, C9-1)</f>
-        <v>0</v>
+        <v>168.54000000000002</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
@@ -1626,25 +2380,31 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" ref="J9:J36" si="4">(SUM(D9,E9,F9,G9) - I9)*POWER(1-$B$1, C9-1)</f>
-        <v>191.49244999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>(SUM(D9:G9)-SUM($I$7:I9)-J9)*POWER(1-$B$1, C9-1)</f>
+        <v>257.37495000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
-        <v>218.5454</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>125.97120000000001</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:F39" si="5">$F$7*POWER(1+$B$4, C10-1)</f>
-        <v>0</v>
+        <f t="shared" ref="F10:F36" si="5">$F$7*POWER(1+$B$4, C10-1)</f>
+        <v>178.65240000000006</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
@@ -1655,25 +2415,31 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="4"/>
-        <v>187.37536232499997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>(SUM(D10:G10)-SUM($I$7:I10)-J10)*POWER(1-$B$1, C10-1)</f>
+        <v>261.17665905000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
-        <v>225.10176199999998</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>136.04889600000004</v>
       </c>
       <c r="F11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>189.37154400000006</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
@@ -1684,25 +2450,31 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="4"/>
-        <v>183.34679203501247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>(SUM(D11:G11)-SUM($I$7:I11)-J11)*POWER(1-$B$1, C11-1)</f>
+        <v>265.05698225775006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
       <c r="C12">
         <v>6</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
-        <v>231.85481485999998</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>146.93280768000002</v>
       </c>
       <c r="F12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>200.73383664000008</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
@@ -1713,25 +2485,31 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="4"/>
-        <v>179.4048360062597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>(SUM(D12:G12)-SUM($I$7:I12)-J12)*POWER(1-$B$1, C12-1)</f>
+        <v>269.01782197940872</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
       <c r="C13">
         <v>7</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
-        <v>238.81045930579998</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>158.68743229440005</v>
       </c>
       <c r="F13">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>212.77786683840009</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
@@ -1742,25 +2520,29 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="4"/>
-        <v>175.54763203212511</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f>(SUM(D13:G13)-SUM($I$7:I13)-J13)*POWER(1-$B$1, C13-1)</f>
+        <v>273.0611290411112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="C14">
         <v>8</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
-        <v>245.974773084974</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>171.38242687795207</v>
       </c>
       <c r="F14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>225.54453884870412</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
@@ -1771,25 +2553,29 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="4"/>
-        <v>171.77335794343443</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>(SUM(D14:G14)-SUM($I$7:I14)-J14)*POWER(1-$B$1, C14-1)</f>
+        <v>277.18890399224966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="C15">
         <v>9</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
-        <v>253.35401627752319</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>185.09302102818822</v>
       </c>
       <c r="F15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>239.07721117962635</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
@@ -1800,25 +2586,29 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <f t="shared" si="4"/>
-        <v>168.08023074765057</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>(SUM(D15:G15)-SUM($I$7:I15)-J15)*POWER(1-$B$1, C15-1)</f>
+        <v>281.40319839129012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="C16">
         <v>10</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
-        <v>260.95463676584887</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>199.90046271044329</v>
       </c>
       <c r="F16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>253.42184385040392</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
@@ -1829,25 +2619,29 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <f t="shared" si="4"/>
-        <v>164.46650578657608</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>(SUM(D16:G16)-SUM($I$7:I16)-J16)*POWER(1-$B$1, C16-1)</f>
+        <v>285.70611612497231</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15">
       <c r="C17">
         <v>11</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
-        <v>268.78327586882438</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>215.89249972727879</v>
       </c>
       <c r="F17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>268.62715448142819</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
@@ -1858,25 +2652,29 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <f t="shared" si="4"/>
-        <v>160.93047591216472</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f>(SUM(D17:G17)-SUM($I$7:I17)-J17)*POWER(1-$B$1, C17-1)</f>
+        <v>290.09981476175892</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15">
       <c r="C18">
         <v>12</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
-        <v>276.84677414488908</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>233.16389970546106</v>
       </c>
       <c r="F18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>284.7447837503139</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
@@ -1887,25 +2685,29 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <f t="shared" si="4"/>
-        <v>157.47047068005315</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f>(SUM(D18:G18)-SUM($I$7:I18)-J18)*POWER(1-$B$1, C18-1)</f>
+        <v>294.58650694042467</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15">
       <c r="C19">
         <v>13</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
-        <v>285.15217736923574</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>251.81701168189798</v>
       </c>
       <c r="F19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>301.82947077533277</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
@@ -1916,25 +2718,29 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <f t="shared" si="4"/>
-        <v>154.084855560432</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f>(SUM(D19:G19)-SUM($I$7:I19)-J19)*POWER(1-$B$1, C19-1)</f>
+        <v>299.16846179469974</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15">
       <c r="C20">
         <v>14</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
-        <v>293.70674269031281</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>271.96237261644984</v>
       </c>
       <c r="F20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>319.93923902185276</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
@@ -1945,25 +2751,29 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <f t="shared" si="4"/>
-        <v>150.77203116588271</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f>(SUM(D20:G20)-SUM($I$7:I20)-J20)*POWER(1-$B$1, C20-1)</f>
+        <v>303.84800641490278</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15">
       <c r="C21">
         <v>15</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
-        <v>302.51794497102219</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>293.71936242576584</v>
       </c>
       <c r="F21">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>339.13559336316393</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
@@ -1974,25 +2784,29 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <f t="shared" si="4"/>
-        <v>147.53043249581623</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f>(SUM(D21:G21)-SUM($I$7:I21)-J21)*POWER(1-$B$1, C21-1)</f>
+        <v>308.62752734752587</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15">
       <c r="C22">
         <v>16</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
-        <v>311.59348332015287</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>317.21691141982717</v>
       </c>
       <c r="F22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>359.48372896495385</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
@@ -2003,25 +2817,29 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <f t="shared" si="4"/>
-        <v>144.3585281971562</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f>(SUM(D22:G22)-SUM($I$7:I22)-J22)*POWER(1-$B$1, C22-1)</f>
+        <v>313.50947213375809</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15">
       <c r="C23">
         <v>17</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
-        <v>320.94128781975741</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E23">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>342.59426433341332</v>
       </c>
       <c r="F23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>381.05275270285097</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
@@ -2032,25 +2850,29 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <f t="shared" si="4"/>
-        <v>141.25481984091732</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f>(SUM(D23:G23)-SUM($I$7:I23)-J23)*POWER(1-$B$1, C23-1)</f>
+        <v>318.4963508879585</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15">
       <c r="C24">
         <v>18</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
-        <v>330.56952645435013</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>370.00180548008638</v>
       </c>
       <c r="F24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>403.9159178650221</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
@@ -2061,25 +2883,29 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <f t="shared" si="4"/>
-        <v>138.2178412143376</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f>(SUM(D24:G24)-SUM($I$7:I24)-J24)*POWER(1-$B$1, C24-1)</f>
+        <v>323.59073791711933</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15">
       <c r="C25">
         <v>19</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
-        <v>340.48661224798064</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E25">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>399.60194991849335</v>
       </c>
       <c r="F25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>428.15087293692341</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
@@ -2090,25 +2916,29 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <f t="shared" si="4"/>
-        <v>135.24615762822933</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f>(SUM(D25:G25)-SUM($I$7:I25)-J25)*POWER(1-$B$1, C25-1)</f>
+        <v>328.7952733823808</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15">
       <c r="C26" s="1">
         <v>20</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="2"/>
-        <v>350.70121061542005</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>431.57010591197286</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>453.83992531313891</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1">
@@ -2119,26 +2949,30 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="1">
-        <f t="shared" si="4"/>
-        <v>132.33836523922238</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10">
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f>(SUM(D26:G26)-SUM($I$7:I26)-J26)*POWER(1-$B$1, C26-1)</f>
+        <v>334.11266500369504</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15">
       <c r="C27">
         <v>21</v>
       </c>
       <c r="D27">
-        <f t="shared" si="2"/>
-        <v>361.22224693388267</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>466.09571438493066</v>
       </c>
       <c r="F27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>481.07032083192718</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
@@ -2149,25 +2983,29 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <f t="shared" si="4"/>
-        <v>129.49309038657913</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f>(SUM(D27:G27)-SUM($I$7:I27)-J27)*POWER(1-$B$1, C27-1)</f>
+        <v>339.545689808757</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15">
       <c r="C28">
         <v>22</v>
       </c>
       <c r="D28">
-        <f t="shared" si="2"/>
-        <v>372.05891434189908</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E28">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>503.38337153572513</v>
       </c>
       <c r="F28">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>509.93454008184295</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
@@ -2178,25 +3016,29 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <f t="shared" si="4"/>
-        <v>126.70898894326766</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f>(SUM(D28:G28)-SUM($I$7:I28)-J28)*POWER(1-$B$1, C28-1)</f>
+        <v>345.09719592735547</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15">
       <c r="C29">
         <v>23</v>
       </c>
       <c r="D29">
-        <f t="shared" si="2"/>
-        <v>383.22068177215607</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E29">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>543.65404125858322</v>
       </c>
       <c r="F29">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>540.53061248675351</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
@@ -2207,25 +3049,29 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <f t="shared" si="4"/>
-        <v>123.98474568098739</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f>(SUM(D29:G29)-SUM($I$7:I29)-J29)*POWER(1-$B$1, C29-1)</f>
+        <v>350.77010443232228</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15">
       <c r="C30">
         <v>24</v>
       </c>
       <c r="D30">
-        <f t="shared" si="2"/>
-        <v>394.71730222532079</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>587.14636455926984</v>
       </c>
       <c r="F30">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>572.96244923595884</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
@@ -2236,55 +3082,67 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <f t="shared" si="4"/>
-        <v>121.31907364884619</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10">
-      <c r="C31" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f>(SUM(D30:G30)-SUM($I$7:I30)-J30)*POWER(1-$B$1, C30-1)</f>
+        <v>356.56741122829447</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15">
+      <c r="C31" s="4">
         <v>25</v>
       </c>
-      <c r="D31" s="5">
-        <f t="shared" si="2"/>
-        <v>406.55882129208038</v>
-      </c>
-      <c r="E31" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="5">
-        <f t="shared" si="4"/>
-        <v>118.71071356539598</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10">
+      <c r="D31" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>634.11807372401142</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="5"/>
+        <v>607.34019619011633</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f>(SUM(D31:G31)-SUM($I$7:I31)-J31)*POWER(1-$B$1, C31-1)</f>
+        <v>362.49218898952688</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="3:15">
       <c r="C32">
         <v>26</v>
       </c>
       <c r="D32">
-        <f t="shared" si="2"/>
-        <v>418.75558593084276</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>684.84751962193252</v>
       </c>
       <c r="F32">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>643.78060796152329</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
@@ -2295,25 +3153,29 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <f t="shared" si="4"/>
-        <v>116.15843322373995</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f>(SUM(D32:G32)-SUM($I$7:I32)-J32)*POWER(1-$B$1, C32-1)</f>
+        <v>368.54758914803637</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11">
       <c r="C33">
         <v>27</v>
       </c>
       <c r="D33">
-        <f t="shared" si="2"/>
-        <v>431.31825350876812</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>739.63532119168701</v>
       </c>
       <c r="F33">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>682.40744443921471</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
@@ -2324,25 +3186,29 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <f t="shared" si="4"/>
-        <v>113.66102690942957</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f>(SUM(D33:G33)-SUM($I$7:I33)-J33)*POWER(1-$B$1, C33-1)</f>
+        <v>374.73684393338067</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11">
       <c r="C34">
         <v>28</v>
       </c>
       <c r="D34">
-        <f t="shared" si="2"/>
-        <v>444.25780111403111</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>798.80614688702201</v>
       </c>
       <c r="F34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>723.35189110556769</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
@@ -2353,25 +3219,29 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <f t="shared" si="4"/>
-        <v>111.21731483087682</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f>(SUM(D34:G34)-SUM($I$7:I34)-J34)*POWER(1-$B$1, C34-1)</f>
+        <v>381.0632684654164</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11">
       <c r="C35">
         <v>29</v>
       </c>
       <c r="D35">
-        <f t="shared" si="2"/>
-        <v>457.58553514745205</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>862.71063863798383</v>
       </c>
       <c r="F35">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>766.75300457190178</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
@@ -2382,25 +3252,29 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <f t="shared" si="4"/>
-        <v>108.82614256201295</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f>(SUM(D35:G35)-SUM($I$7:I35)-J35)*POWER(1-$B$1, C35-1)</f>
+        <v>387.53026290141332</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11">
       <c r="C36">
         <v>30</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
-        <v>471.31310120187555</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>931.72748972902252</v>
       </c>
       <c r="F36">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>812.75818484621595</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
@@ -2411,8 +3285,12 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <f t="shared" si="4"/>
-        <v>106.48638049692967</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f>(SUM(D36:G36)-SUM($I$7:I36)-J36)*POWER(1-$B$1, C36-1)</f>
+        <v>394.14131463893762</v>
       </c>
     </row>
   </sheetData>
@@ -2421,88 +3299,109 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57B9229-C2CA-4CAF-8631-7DA7237AE725}">
-  <dimension ref="A1:J36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F20B1D-D781-469C-8530-FA0343635BDE}">
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="5.1640625" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.58203125" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="9.75" customWidth="1"/>
     <col min="8" max="8" width="12.75" customWidth="1"/>
     <col min="10" max="10" width="11.75" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="14" max="14" width="16.4140625" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11.58203125" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="6">
+        <f>'case1-average'!B1</f>
         <v>0.05</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="E1" s="3">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="18">
+        <f>'case1-average'!H1</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
+        <f>'case1-average'!B2</f>
         <v>0.03</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="12">
+        <f>'case1-average'!E2</f>
         <v>25</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
+        <f>'case1-average'!B3</f>
         <v>0.08</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="B4" s="6">
+        <f>'case1-average'!B4</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="13">
+        <f>'case1-average'!B5</f>
         <v>3.3500000000000002E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2525,23 +3424,33 @@
         <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>200</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4"/>
+      <c r="D7" s="3">
+        <v>100</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <f>E1+H1</f>
+        <v>150</v>
+      </c>
+      <c r="G7" s="3"/>
       <c r="H7">
         <f>$E$1*$B$5/12*POWER(1+$B$5/12, $E$2*12)/(POWER(1+$B$5/12, $E$2*12)-1)</f>
         <v>0</v>
@@ -2551,28 +3460,34 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <f>(SUM(D7,E7,F7,G7) - I7)*POWER(1-$B$1, C7-1)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <f>$E$1*(POWER(1+$B$5, $E$2)-POWER(1+$B$5, C7))/(POWER(1+$B$5, $E$2)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>(SUM(D7:G7)-SUM($I$7:I7)-J7)*POWER(1-$B$1, C7-1)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
         <f>$D$7*POWER(1+$B$2, C8-1)</f>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="E8">
         <f>$E$7*POWER(1+$B$3, C8-1)</f>
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f>$F$7*POWER(1+$B$4, C8-1)</f>
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:H37" si="0">$E$1*$B$5/12*POWER(1+$B$5/12, $E$2*12)/(POWER(1+$B$5/12, $E$2*12)-1)</f>
+        <f t="shared" ref="H8:H36" si="0">$E$1*$B$5/12*POWER(1+$B$5/12, $E$2*12)/(POWER(1+$B$5/12, $E$2*12)-1)</f>
         <v>0</v>
       </c>
       <c r="I8">
@@ -2580,25 +3495,31 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <f>(SUM(D8,E8,F8,G8) - I8)*POWER(1-$B$1, C8-1)</f>
-        <v>205.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <f t="shared" ref="J8:J36" si="2">$E$1*(POWER(1+$B$5, $E$2)-POWER(1+$B$5, C8))/(POWER(1+$B$5, $E$2)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>(SUM(D8:G8)-SUM($I$7:I8)-J8)*POWER(1-$B$1, C8-1)</f>
+        <v>248.89999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:D36" si="2">$D$7*POWER(1+$B$2, C9-1)</f>
-        <v>0</v>
+        <f t="shared" ref="D9:D36" si="3">$D$7*POWER(1+$B$2, C9-1)</f>
+        <v>106.08999999999999</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:E37" si="3">$E$7*POWER(1+$B$3, C9-1)</f>
-        <v>233.28000000000003</v>
+        <f t="shared" ref="E9:E36" si="4">$E$7*POWER(1+$B$3, C9-1)</f>
+        <v>0</v>
       </c>
       <c r="F9">
         <f>$F$7*POWER(1+$B$4, C9-1)</f>
-        <v>0</v>
+        <v>168.54000000000002</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
@@ -2609,25 +3530,31 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" ref="J9:J36" si="4">(SUM(D9,E9,F9,G9) - I9)*POWER(1-$B$1, C9-1)</f>
-        <v>210.53520000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>(SUM(D9:G9)-SUM($I$7:I9)-J9)*POWER(1-$B$1, C9-1)</f>
+        <v>247.85357499999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>109.2727</v>
       </c>
       <c r="E10">
-        <f t="shared" si="3"/>
-        <v>251.94240000000002</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:F39" si="5">$F$7*POWER(1+$B$4, C10-1)</f>
-        <v>0</v>
+        <f t="shared" ref="F10:F36" si="5">$F$7*POWER(1+$B$4, C10-1)</f>
+        <v>178.65240000000006</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
@@ -2638,25 +3565,29 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="4"/>
-        <v>216.0091152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>(SUM(D10:G10)-SUM($I$7:I10)-J10)*POWER(1-$B$1, C10-1)</f>
+        <v>246.8597826125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>112.55088099999999</v>
       </c>
       <c r="E11">
-        <f t="shared" si="3"/>
-        <v>272.09779200000008</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>189.37154400000006</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
@@ -2667,25 +3598,29 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="4"/>
-        <v>221.62535219520007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>(SUM(D11:G11)-SUM($I$7:I11)-J11)*POWER(1-$B$1, C11-1)</f>
+        <v>245.91770217765628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="C12">
         <v>6</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>115.92740742999999</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
-        <v>293.86561536000005</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>200.73383664000008</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
@@ -2696,25 +3631,29 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="4"/>
-        <v>227.38761135227523</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>(SUM(D12:G12)-SUM($I$7:I12)-J12)*POWER(1-$B$1, C12-1)</f>
+        <v>245.02643430640097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="C13">
         <v>7</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>119.40522965289999</v>
       </c>
       <c r="E13">
-        <f t="shared" si="3"/>
-        <v>317.37486458880011</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F13">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>212.77786683840009</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
@@ -2725,25 +3664,29 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="4"/>
-        <v>233.2996892474344</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f>(SUM(D13:G13)-SUM($I$7:I13)-J13)*POWER(1-$B$1, C13-1)</f>
+        <v>244.18510043345657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="C14">
         <v>8</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>122.987386542487</v>
       </c>
       <c r="E14">
-        <f t="shared" si="3"/>
-        <v>342.76485375590414</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>225.54453884870412</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
@@ -2754,25 +3697,29 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="4"/>
-        <v>239.36548116786773</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>(SUM(D14:G14)-SUM($I$7:I14)-J14)*POWER(1-$B$1, C14-1)</f>
+        <v>243.39284238003299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="C15">
         <v>9</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>126.67700813876159</v>
       </c>
       <c r="E15">
-        <f t="shared" si="3"/>
-        <v>370.18604205637644</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>239.07721117962635</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
@@ -2783,25 +3730,29 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <f t="shared" si="4"/>
-        <v>245.58898367823227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>(SUM(D15:G15)-SUM($I$7:I15)-J15)*POWER(1-$B$1, C15-1)</f>
+        <v>242.64882192599927</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="C16">
         <v>10</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>130.47731838292444</v>
       </c>
       <c r="E16">
-        <f t="shared" si="3"/>
-        <v>399.80092542088659</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>253.42184385040392</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
@@ -2812,25 +3763,29 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <f t="shared" si="4"/>
-        <v>251.97429725386633</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>(SUM(D16:G16)-SUM($I$7:I16)-J16)*POWER(1-$B$1, C16-1)</f>
+        <v>241.95222039132722</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15">
       <c r="C17">
         <v>11</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>134.39163793441219</v>
       </c>
       <c r="E17">
-        <f t="shared" si="3"/>
-        <v>431.78499945455758</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>268.62715448142819</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
@@ -2841,25 +3796,29 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <f t="shared" si="4"/>
-        <v>258.52562898246691</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f>(SUM(D17:G17)-SUM($I$7:I17)-J17)*POWER(1-$B$1, C17-1)</f>
+        <v>241.30223822660787</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15">
       <c r="C18">
         <v>12</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>138.42338707244454</v>
       </c>
       <c r="E18">
-        <f t="shared" si="3"/>
-        <v>466.32779941092213</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>284.7447837503139</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
@@ -2870,25 +3829,29 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <f t="shared" si="4"/>
-        <v>265.24729533601101</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f>(SUM(D18:G18)-SUM($I$7:I18)-J18)*POWER(1-$B$1, C18-1)</f>
+        <v>240.69809461244574</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15">
       <c r="C19">
         <v>13</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>142.57608868461787</v>
       </c>
       <c r="E19">
-        <f t="shared" si="3"/>
-        <v>503.63402336379596</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>301.82947077533277</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
@@ -2899,25 +3862,29 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <f t="shared" si="4"/>
-        <v>272.1437250147473</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f>(SUM(D19:G19)-SUM($I$7:I19)-J19)*POWER(1-$B$1, C19-1)</f>
+        <v>240.13902706754209</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15">
       <c r="C20">
         <v>14</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>146.8533713451564</v>
       </c>
       <c r="E20">
-        <f t="shared" si="3"/>
-        <v>543.92474523289968</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>319.93923902185276</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
@@ -2928,25 +3895,29 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <f t="shared" si="4"/>
-        <v>279.21946186513077</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f>(SUM(D20:G20)-SUM($I$7:I20)-J20)*POWER(1-$B$1, C20-1)</f>
+        <v>239.62429106527875</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15">
       <c r="C21">
         <v>15</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>151.25897248551109</v>
       </c>
       <c r="E21">
-        <f t="shared" si="3"/>
-        <v>587.43872485153167</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F21">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>339.13559336316393</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
@@ -2957,25 +3928,29 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <f t="shared" si="4"/>
-        <v>286.47916787362414</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f>(SUM(D21:G21)-SUM($I$7:I21)-J21)*POWER(1-$B$1, C21-1)</f>
+        <v>239.15315965862189</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15">
       <c r="C22">
         <v>16</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>155.79674166007644</v>
       </c>
       <c r="E22">
-        <f t="shared" si="3"/>
-        <v>634.43382283965434</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>359.48372896495385</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
@@ -2986,25 +3961,29 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <f t="shared" si="4"/>
-        <v>293.92762623833846</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f>(SUM(D22:G22)-SUM($I$7:I22)-J22)*POWER(1-$B$1, C22-1)</f>
+        <v>238.72492311316691</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15">
       <c r="C23">
         <v>17</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>160.4706439098787</v>
       </c>
       <c r="E23">
-        <f t="shared" si="3"/>
-        <v>685.18852866682664</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>381.05275270285097</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
@@ -3015,25 +3994,29 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <f t="shared" si="4"/>
-        <v>301.56974452053521</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f>(SUM(D23:G23)-SUM($I$7:I23)-J23)*POWER(1-$B$1, C23-1)</f>
+        <v>238.33888854814955</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15">
       <c r="C24">
         <v>18</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>165.28476322717506</v>
       </c>
       <c r="E24">
-        <f t="shared" si="3"/>
-        <v>740.00361096017275</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>403.9159178650221</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
@@ -3044,25 +4027,29 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <f t="shared" si="4"/>
-        <v>309.41055787806914</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f>(SUM(D24:G24)-SUM($I$7:I24)-J24)*POWER(1-$B$1, C24-1)</f>
+        <v>237.99437958525351</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15">
       <c r="C25">
         <v>19</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>170.24330612399032</v>
       </c>
       <c r="E25">
-        <f t="shared" si="3"/>
-        <v>799.20389983698669</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>428.15087293692341</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
@@ -3073,25 +4060,29 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <f t="shared" si="4"/>
-        <v>317.455232382899</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f>(SUM(D25:G25)-SUM($I$7:I25)-J25)*POWER(1-$B$1, C25-1)</f>
+        <v>237.69073600504601</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15">
       <c r="C26" s="1">
         <v>20</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>175.35060530771003</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="3"/>
-        <v>863.14021182394572</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>453.83992531313891</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1">
@@ -3102,26 +4093,30 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="1">
-        <f t="shared" si="4"/>
-        <v>325.70906842485437</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10">
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f>(SUM(D26:G26)-SUM($I$7:I26)-J26)*POWER(1-$B$1, C26-1)</f>
+        <v>237.42731341087907</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15">
       <c r="C27">
         <v>21</v>
       </c>
       <c r="D27">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>180.61112346694134</v>
       </c>
       <c r="E27">
-        <f t="shared" si="3"/>
-        <v>932.19142876986132</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>481.07032083192718</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
@@ -3132,25 +4127,29 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <f t="shared" si="4"/>
-        <v>334.17750420390058</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f>(SUM(D27:G27)-SUM($I$7:I27)-J27)*POWER(1-$B$1, C27-1)</f>
+        <v>237.2034829000963</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15">
       <c r="C28">
         <v>22</v>
       </c>
       <c r="D28">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>186.02945717094954</v>
       </c>
       <c r="E28">
-        <f t="shared" si="3"/>
-        <v>1006.7667430714503</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F28">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>509.93454008184295</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
@@ -3161,25 +4160,29 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <f t="shared" si="4"/>
-        <v>342.86611931320203</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f>(SUM(D28:G28)-SUM($I$7:I28)-J28)*POWER(1-$B$1, C28-1)</f>
+        <v>237.0186307423883</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15">
       <c r="C29">
         <v>23</v>
       </c>
       <c r="D29">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>191.61034088607803</v>
       </c>
       <c r="E29">
-        <f t="shared" si="3"/>
-        <v>1087.3080825171664</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F29">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>540.53061248675351</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
@@ -3190,25 +4193,29 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <f t="shared" si="4"/>
-        <v>351.78063841534527</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f>(SUM(D29:G29)-SUM($I$7:I29)-J29)*POWER(1-$B$1, C29-1)</f>
+        <v>236.87215806514337</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15">
       <c r="C30">
         <v>24</v>
       </c>
       <c r="D30">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>197.3586511126604</v>
       </c>
       <c r="E30">
-        <f t="shared" si="3"/>
-        <v>1174.2927291185397</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F30">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>572.96244923595884</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
@@ -3219,55 +4226,67 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <f t="shared" si="4"/>
-        <v>360.92693501414425</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10">
-      <c r="C31" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f>(SUM(D30:G30)-SUM($I$7:I30)-J30)*POWER(1-$B$1, C30-1)</f>
+        <v>236.76348054564539</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15">
+      <c r="C31" s="4">
         <v>25</v>
       </c>
-      <c r="D31" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="5">
-        <f t="shared" si="3"/>
-        <v>1268.2361474480228</v>
-      </c>
-      <c r="F31" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="5">
-        <f t="shared" si="4"/>
-        <v>370.31103532451203</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10">
+      <c r="D31" s="4">
+        <f t="shared" si="3"/>
+        <v>203.27941064604019</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="5"/>
+        <v>607.34019619011633</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f>(SUM(D31:G31)-SUM($I$7:I31)-J31)*POWER(1-$B$1, C31-1)</f>
+        <v>236.69202810996885</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="3:15">
       <c r="C32">
         <v>26</v>
       </c>
       <c r="D32">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>209.37779296542138</v>
       </c>
       <c r="E32">
-        <f t="shared" si="3"/>
-        <v>1369.695039243865</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F32">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>643.78060796152329</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
@@ -3278,25 +4297,29 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <f t="shared" si="4"/>
-        <v>379.9391222429494</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f>(SUM(D32:G32)-SUM($I$7:I32)-J32)*POWER(1-$B$1, C32-1)</f>
+        <v>236.65724463843168</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11">
       <c r="C33">
         <v>27</v>
       </c>
       <c r="D33">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>215.65912675438406</v>
       </c>
       <c r="E33">
-        <f t="shared" si="3"/>
-        <v>1479.270642383374</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F33">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>682.40744443921471</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
@@ -3307,25 +4330,29 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <f t="shared" si="4"/>
-        <v>389.81753942126602</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f>(SUM(D33:G33)-SUM($I$7:I33)-J33)*POWER(1-$B$1, C33-1)</f>
+        <v>236.65858767746244</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11">
       <c r="C34">
         <v>28</v>
       </c>
       <c r="D34">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>222.12890055701556</v>
       </c>
       <c r="E34">
-        <f t="shared" si="3"/>
-        <v>1597.612293774044</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>723.35189110556769</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
@@ -3336,25 +4363,29 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <f t="shared" si="4"/>
-        <v>399.952795446219</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f>(SUM(D34:G34)-SUM($I$7:I34)-J34)*POWER(1-$B$1, C34-1)</f>
+        <v>236.69552815774531</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11">
       <c r="C35">
         <v>29</v>
       </c>
       <c r="D35">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>228.79276757372602</v>
       </c>
       <c r="E35">
-        <f t="shared" si="3"/>
-        <v>1725.4212772759677</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F35">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>766.75300457190178</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
@@ -3365,25 +4396,29 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <f t="shared" si="4"/>
-        <v>410.35156812782066</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f>(SUM(D35:G35)-SUM($I$7:I35)-J35)*POWER(1-$B$1, C35-1)</f>
+        <v>236.76755011850952</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11">
       <c r="C36">
         <v>30</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>235.65655060093778</v>
       </c>
       <c r="E36">
-        <f t="shared" si="3"/>
-        <v>1863.454979458045</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F36">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>812.75818484621595</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
@@ -3394,676 +4429,12 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <f t="shared" si="4"/>
-        <v>421.02070889914398</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C32700-6973-4021-A40E-BD9C56E972D5}">
-  <dimension ref="I6:M36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="10" max="10" width="12.58203125" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="10.25" customWidth="1"/>
-    <col min="13" max="13" width="12.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="9:13">
-      <c r="I6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="9:13">
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <f>'case1-average'!J7</f>
-        <v>194.08862013445179</v>
-      </c>
-      <c r="K7">
-        <f>'case2-cash'!J7</f>
-        <v>200</v>
-      </c>
-      <c r="L7">
-        <f>'case3-etf'!J7</f>
-        <v>200</v>
-      </c>
-      <c r="M7">
-        <f>L7-J7</f>
-        <v>5.9113798655482128</v>
-      </c>
-    </row>
-    <row r="8" spans="9:13">
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <f>'case1-average'!J8</f>
-        <v>198.15918912772918</v>
-      </c>
-      <c r="K8">
-        <f>'case2-cash'!J8</f>
-        <v>195.7</v>
-      </c>
-      <c r="L8">
-        <f>'case3-etf'!J8</f>
-        <v>205.2</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ref="M8:M36" si="0">L8-J8</f>
-        <v>7.0408108722708107</v>
-      </c>
-    </row>
-    <row r="9" spans="9:13">
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <f>'case1-average'!J9</f>
-        <v>202.30766717134276</v>
-      </c>
-      <c r="K9">
-        <f>'case2-cash'!J9</f>
-        <v>191.49244999999996</v>
-      </c>
-      <c r="L9">
-        <f>'case3-etf'!J9</f>
-        <v>210.53520000000003</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>8.2275328286572744</v>
-      </c>
-    </row>
-    <row r="10" spans="9:13">
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="J10">
-        <f>'case1-average'!J10</f>
-        <v>206.53672485652558</v>
-      </c>
-      <c r="K10">
-        <f>'case2-cash'!J10</f>
-        <v>187.37536232499997</v>
-      </c>
-      <c r="L10">
-        <f>'case3-etf'!J10</f>
-        <v>216.0091152</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
-        <v>9.4723903434744159</v>
-      </c>
-    </row>
-    <row r="11" spans="9:13">
-      <c r="I11">
-        <v>5</v>
-      </c>
-      <c r="J11">
-        <f>'case1-average'!J11</f>
-        <v>210.8490465049837</v>
-      </c>
-      <c r="K11">
-        <f>'case2-cash'!J11</f>
-        <v>183.34679203501247</v>
-      </c>
-      <c r="L11">
-        <f>'case3-etf'!J11</f>
-        <v>221.62535219520007</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
-        <v>10.776305690216361</v>
-      </c>
-    </row>
-    <row r="12" spans="9:13">
-      <c r="I12">
-        <v>6</v>
-      </c>
-      <c r="J12">
-        <f>'case1-average'!J12</f>
-        <v>215.24733316188372</v>
-      </c>
-      <c r="K12">
-        <f>'case2-cash'!J12</f>
-        <v>179.4048360062597</v>
-      </c>
-      <c r="L12">
-        <f>'case3-etf'!J12</f>
-        <v>227.38761135227523</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
-        <v>12.140278190391513</v>
-      </c>
-    </row>
-    <row r="13" spans="9:13">
-      <c r="I13">
-        <v>7</v>
-      </c>
-      <c r="J13">
-        <f>'case1-average'!J13</f>
-        <v>219.7343055272836</v>
-      </c>
-      <c r="K13">
-        <f>'case2-cash'!J13</f>
-        <v>175.54763203212511</v>
-      </c>
-      <c r="L13">
-        <f>'case3-etf'!J13</f>
-        <v>233.2996892474344</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
-        <v>13.565383720150805</v>
-      </c>
-    </row>
-    <row r="14" spans="9:13">
-      <c r="I14">
-        <v>8</v>
-      </c>
-      <c r="J14">
-        <f>'case1-average'!J14</f>
-        <v>224.31270683135986</v>
-      </c>
-      <c r="K14">
-        <f>'case2-cash'!J14</f>
-        <v>171.77335794343443</v>
-      </c>
-      <c r="L14">
-        <f>'case3-etf'!J14</f>
-        <v>239.36548116786773</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="0"/>
-        <v>15.052774336507866</v>
-      </c>
-    </row>
-    <row r="15" spans="9:13">
-      <c r="I15">
-        <v>9</v>
-      </c>
-      <c r="J15">
-        <f>'case1-average'!J15</f>
-        <v>228.98530565857149</v>
-      </c>
-      <c r="K15">
-        <f>'case2-cash'!J15</f>
-        <v>168.08023074765057</v>
-      </c>
-      <c r="L15">
-        <f>'case3-etf'!J15</f>
-        <v>245.58898367823227</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="0"/>
-        <v>16.603678019660776</v>
-      </c>
-    </row>
-    <row r="16" spans="9:13">
-      <c r="I16">
-        <v>10</v>
-      </c>
-      <c r="J16">
-        <f>'case1-average'!J16</f>
-        <v>233.75489872570623</v>
-      </c>
-      <c r="K16">
-        <f>'case2-cash'!J16</f>
-        <v>164.46650578657608</v>
-      </c>
-      <c r="L16">
-        <f>'case3-etf'!J16</f>
-        <v>251.97429725386633</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="0"/>
-        <v>18.219398528160099</v>
-      </c>
-    </row>
-    <row r="17" spans="9:13">
-      <c r="I17">
-        <v>11</v>
-      </c>
-      <c r="J17">
-        <f>'case1-average'!J17</f>
-        <v>238.62431361856238</v>
-      </c>
-      <c r="K17">
-        <f>'case2-cash'!J17</f>
-        <v>160.93047591216472</v>
-      </c>
-      <c r="L17">
-        <f>'case3-etf'!J17</f>
-        <v>258.52562898246691</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="0"/>
-        <v>19.90131536390453</v>
-      </c>
-    </row>
-    <row r="18" spans="9:13">
-      <c r="I18">
-        <v>12</v>
-      </c>
-      <c r="J18">
-        <f>'case1-average'!J18</f>
-        <v>243.59641149184594</v>
-      </c>
-      <c r="K18">
-        <f>'case2-cash'!J18</f>
-        <v>157.47047068005315</v>
-      </c>
-      <c r="L18">
-        <f>'case3-etf'!J18</f>
-        <v>265.24729533601101</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="0"/>
-        <v>21.650883844165065</v>
-      </c>
-    </row>
-    <row r="19" spans="9:13">
-      <c r="I19">
-        <v>13</v>
-      </c>
-      <c r="J19">
-        <f>'case1-average'!J19</f>
-        <v>248.67408973669549</v>
-      </c>
-      <c r="K19">
-        <f>'case2-cash'!J19</f>
-        <v>154.084855560432</v>
-      </c>
-      <c r="L19">
-        <f>'case3-etf'!J19</f>
-        <v>272.1437250147473</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="0"/>
-        <v>23.469635278051811</v>
-      </c>
-    </row>
-    <row r="20" spans="9:13">
-      <c r="I20">
-        <v>14</v>
-      </c>
-      <c r="J20">
-        <f>'case1-average'!J20</f>
-        <v>253.86028462009082</v>
-      </c>
-      <c r="K20">
-        <f>'case2-cash'!J20</f>
-        <v>150.77203116588271</v>
-      </c>
-      <c r="L20">
-        <f>'case3-etf'!J20</f>
-        <v>279.21946186513077</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="0"/>
-        <v>25.359177245039945</v>
-      </c>
-    </row>
-    <row r="21" spans="9:13">
-      <c r="I21">
-        <v>15</v>
-      </c>
-      <c r="J21">
-        <f>'case1-average'!J21</f>
-        <v>259.15797390025392</v>
-      </c>
-      <c r="K21">
-        <f>'case2-cash'!J21</f>
-        <v>147.53043249581623</v>
-      </c>
-      <c r="L21">
-        <f>'case3-etf'!J21</f>
-        <v>286.47916787362414</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="0"/>
-        <v>27.321193973370214</v>
-      </c>
-    </row>
-    <row r="22" spans="9:13">
-      <c r="I22">
-        <v>16</v>
-      </c>
-      <c r="J22">
-        <f>'case1-average'!J22</f>
-        <v>264.57017942201543</v>
-      </c>
-      <c r="K22">
-        <f>'case2-cash'!J22</f>
-        <v>144.3585281971562</v>
-      </c>
-      <c r="L22">
-        <f>'case3-etf'!J22</f>
-        <v>293.92762623833846</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="0"/>
-        <v>29.357446816323034</v>
-      </c>
-    </row>
-    <row r="23" spans="9:13">
-      <c r="I23">
-        <v>17</v>
-      </c>
-      <c r="J23">
-        <f>'case1-average'!J23</f>
-        <v>270.09996969598802</v>
-      </c>
-      <c r="K23">
-        <f>'case2-cash'!J23</f>
-        <v>141.25481984091732</v>
-      </c>
-      <c r="L23">
-        <f>'case3-etf'!J23</f>
-        <v>301.56974452053521</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="0"/>
-        <v>31.469774824547187</v>
-      </c>
-    </row>
-    <row r="24" spans="9:13">
-      <c r="I24">
-        <v>18</v>
-      </c>
-      <c r="J24">
-        <f>'case1-average'!J24</f>
-        <v>275.7504624652687</v>
-      </c>
-      <c r="K24">
-        <f>'case2-cash'!J24</f>
-        <v>138.2178412143376</v>
-      </c>
-      <c r="L24">
-        <f>'case3-etf'!J24</f>
-        <v>309.41055787806914</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="0"/>
-        <v>33.660095412800445</v>
-      </c>
-    </row>
-    <row r="25" spans="9:13">
-      <c r="I25">
-        <v>19</v>
-      </c>
-      <c r="J25">
-        <f>'case1-average'!J25</f>
-        <v>281.5248272632781</v>
-      </c>
-      <c r="K25">
-        <f>'case2-cash'!J25</f>
-        <v>135.24615762822933</v>
-      </c>
-      <c r="L25">
-        <f>'case3-etf'!J25</f>
-        <v>317.455232382899</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="0"/>
-        <v>35.9304051196209</v>
-      </c>
-    </row>
-    <row r="26" spans="9:13">
-      <c r="I26">
-        <v>20</v>
-      </c>
-      <c r="J26">
-        <f>'case1-average'!J26</f>
-        <v>287.42628796624075</v>
-      </c>
-      <c r="K26">
-        <f>'case2-cash'!J26</f>
-        <v>132.33836523922238</v>
-      </c>
-      <c r="L26">
-        <f>'case3-etf'!J26</f>
-        <v>325.70906842485437</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="0"/>
-        <v>38.282780458613615</v>
-      </c>
-    </row>
-    <row r="27" spans="9:13">
-      <c r="I27">
-        <v>21</v>
-      </c>
-      <c r="J27">
-        <f>'case1-average'!J27</f>
-        <v>293.45812534371203</v>
-      </c>
-      <c r="K27">
-        <f>'case2-cash'!J27</f>
-        <v>129.49309038657913</v>
-      </c>
-      <c r="L27">
-        <f>'case3-etf'!J27</f>
-        <v>334.17750420390058</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="0"/>
-        <v>40.719378860188556</v>
-      </c>
-    </row>
-    <row r="28" spans="9:13">
-      <c r="I28">
-        <v>22</v>
-      </c>
-      <c r="J28">
-        <f>'case1-average'!J28</f>
-        <v>299.6236796104638</v>
-      </c>
-      <c r="K28">
-        <f>'case2-cash'!J28</f>
-        <v>126.70898894326766</v>
-      </c>
-      <c r="L28">
-        <f>'case3-etf'!J28</f>
-        <v>342.86611931320203</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="0"/>
-        <v>43.242439702738238</v>
-      </c>
-    </row>
-    <row r="29" spans="9:13">
-      <c r="I29">
-        <v>23</v>
-      </c>
-      <c r="J29">
-        <f>'case1-average'!J29</f>
-        <v>305.9263529829592</v>
-      </c>
-      <c r="K29">
-        <f>'case2-cash'!J29</f>
-        <v>123.98474568098739</v>
-      </c>
-      <c r="L29">
-        <f>'case3-etf'!J29</f>
-        <v>351.78063841534527</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="0"/>
-        <v>45.854285432386064</v>
-      </c>
-    </row>
-    <row r="30" spans="9:13">
-      <c r="I30">
-        <v>24</v>
-      </c>
-      <c r="J30">
-        <f>'case1-average'!J30</f>
-        <v>312.36961224356833</v>
-      </c>
-      <c r="K30">
-        <f>'case2-cash'!J30</f>
-        <v>121.31907364884619</v>
-      </c>
-      <c r="L30">
-        <f>'case3-etf'!J30</f>
-        <v>360.92693501414425</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="0"/>
-        <v>48.557322770575922</v>
-      </c>
-    </row>
-    <row r="31" spans="9:13">
-      <c r="I31" s="1">
-        <v>25</v>
-      </c>
-      <c r="J31" s="1">
-        <f>'case1-average'!J31</f>
-        <v>318.95699131560053</v>
-      </c>
-      <c r="K31" s="1">
-        <f>'case2-cash'!J31</f>
-        <v>118.71071356539598</v>
-      </c>
-      <c r="L31" s="1">
-        <f>'case3-etf'!J31</f>
-        <v>370.31103532451203</v>
-      </c>
-      <c r="M31" s="1">
-        <f t="shared" si="0"/>
-        <v>51.354044008911501</v>
-      </c>
-    </row>
-    <row r="32" spans="9:13">
-      <c r="I32">
-        <v>26</v>
-      </c>
-      <c r="J32">
-        <f>'case1-average'!J32</f>
-        <v>325.69209385216851</v>
-      </c>
-      <c r="K32">
-        <f>'case2-cash'!J32</f>
-        <v>116.15843322373995</v>
-      </c>
-      <c r="L32">
-        <f>'case3-etf'!J32</f>
-        <v>379.9391222429494</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="0"/>
-        <v>54.247028390780883</v>
-      </c>
-    </row>
-    <row r="33" spans="9:13">
-      <c r="I33">
-        <v>27</v>
-      </c>
-      <c r="J33">
-        <f>'case1-average'!J33</f>
-        <v>332.57859584183421</v>
-      </c>
-      <c r="K33">
-        <f>'case2-cash'!J33</f>
-        <v>113.66102690942957</v>
-      </c>
-      <c r="L33">
-        <f>'case3-etf'!J33</f>
-        <v>389.81753942126602</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="0"/>
-        <v>57.238943579431805</v>
-      </c>
-    </row>
-    <row r="34" spans="9:13">
-      <c r="I34">
-        <v>28</v>
-      </c>
-      <c r="J34">
-        <f>'case1-average'!J34</f>
-        <v>339.62024823393193</v>
-      </c>
-      <c r="K34">
-        <f>'case2-cash'!J34</f>
-        <v>111.21731483087682</v>
-      </c>
-      <c r="L34">
-        <f>'case3-etf'!J34</f>
-        <v>399.952795446219</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="0"/>
-        <v>60.332547212287068</v>
-      </c>
-    </row>
-    <row r="35" spans="9:13">
-      <c r="I35">
-        <v>29</v>
-      </c>
-      <c r="J35">
-        <f>'case1-average'!J35</f>
-        <v>346.82087958641455</v>
-      </c>
-      <c r="K35">
-        <f>'case2-cash'!J35</f>
-        <v>108.82614256201295</v>
-      </c>
-      <c r="L35">
-        <f>'case3-etf'!J35</f>
-        <v>410.35156812782066</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="0"/>
-        <v>63.530688541406107</v>
-      </c>
-    </row>
-    <row r="36" spans="9:13">
-      <c r="I36">
-        <v>30</v>
-      </c>
-      <c r="J36">
-        <f>'case1-average'!J36</f>
-        <v>354.18439873902452</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="K36">
-        <f>'case2-cash'!J36</f>
-        <v>106.48638049692967</v>
-      </c>
-      <c r="L36">
-        <f>'case3-etf'!J36</f>
-        <v>421.02070889914398</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="0"/>
-        <v>66.836310160119467</v>
+        <f>(SUM(D36:G36)-SUM($I$7:I36)-J36)*POWER(1-$B$1, C36-1)</f>
+        <v>236.87415043783045</v>
       </c>
     </row>
   </sheetData>

--- a/doc41/principle/calc/invest-calc.xlsx
+++ b/doc41/principle/calc/invest-calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okay-examples\doc41\principle\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB32F1B7-FAE2-4E5F-8BC7-2DC85C129C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD9BFB7-C6DE-4068-8594-A4C456EDECFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -234,22 +234,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -533,7 +530,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -567,12 +564,12 @@
         <v>9</v>
       </c>
       <c r="E1" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="13">
         <v>150</v>
       </c>
     </row>
@@ -595,12 +592,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -609,7 +606,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -619,13 +616,12 @@
       <c r="B5" s="3">
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
     </row>
     <row r="6" spans="1:16">
       <c r="C6" s="1" t="s">
@@ -656,16 +652,16 @@
         <v>14</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -679,30 +675,30 @@
       <c r="E7" s="3">
         <v>50</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="14">
         <f>E1+H1</f>
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7">
         <f>$E$1*$B$5/12*POWER(1+$B$5/12, $E$2*12)/(POWER(1+$B$5/12, $E$2*12)-1)</f>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I7">
         <f>H7*12</f>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J7">
         <f>$E$1*(POWER(1+$B$5, $E$2)-POWER(1+$B$5, C7))/(POWER(1+$B$5, $E$2)-1)</f>
-        <v>194.7619128269603</v>
+        <v>486.90478206740079</v>
       </c>
       <c r="K7">
         <f>(SUM(D7:G7)-SUM($I$7:I7)-J7)*POWER(1-$B$1, C7-1)</f>
-        <v>243.41532744194328</v>
+        <v>233.5383186048582</v>
       </c>
       <c r="M7">
         <f>K7</f>
-        <v>243.41532744194328</v>
+        <v>233.5383186048582</v>
       </c>
       <c r="N7">
         <f>'case2-etf'!K7</f>
@@ -714,7 +710,7 @@
       </c>
       <c r="P7">
         <f>M7-N7</f>
-        <v>-6.5846725580567238</v>
+        <v>-16.461681395141795</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -727,43 +723,43 @@
       </c>
       <c r="E8">
         <f>$E$7*POWER(1+$B$3, C8-1)</f>
-        <v>54</v>
+        <v>53.5</v>
       </c>
       <c r="F8">
         <f>$F$7*POWER(1+$B$4, C8-1)</f>
-        <v>371</v>
+        <v>682.5</v>
       </c>
       <c r="H8">
         <f t="shared" ref="H8:H36" si="0">$E$1*$B$5/12*POWER(1+$B$5/12, $E$2*12)/(POWER(1+$B$5/12, $E$2*12)-1)</f>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I8">
         <f t="shared" ref="I8:I36" si="1">H8*12</f>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J8">
         <f t="shared" ref="J8:J36" si="2">$E$1*(POWER(1+$B$5, $E$2)-POWER(1+$B$5, C8))/(POWER(1+$B$5, $E$2)-1)</f>
-        <v>189.34834973362376</v>
+        <v>473.37087433405935</v>
       </c>
       <c r="K8">
         <f>(SUM(D8:G8)-SUM($I$7:I8)-J8)*POWER(1-$B$1, C8-1)</f>
-        <v>250.33082426397419</v>
+        <v>242.26456065993568</v>
       </c>
       <c r="M8">
         <f t="shared" ref="M8:M36" si="3">K8</f>
-        <v>250.33082426397419</v>
+        <v>242.26456065993568</v>
       </c>
       <c r="N8">
         <f>'case2-etf'!K8</f>
-        <v>253.64999999999998</v>
+        <v>251.27499999999998</v>
       </c>
       <c r="O8">
         <f>'case3-cash'!K8</f>
-        <v>248.89999999999998</v>
+        <v>247.47499999999999</v>
       </c>
       <c r="P8">
         <f t="shared" ref="P8:P36" si="4">M8-N8</f>
-        <v>-3.3191757360257839</v>
+        <v>-9.0104393400642948</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -776,43 +772,43 @@
       </c>
       <c r="E9">
         <f t="shared" ref="E9:E36" si="6">$E$7*POWER(1+$B$3, C9-1)</f>
-        <v>58.320000000000007</v>
+        <v>57.245000000000005</v>
       </c>
       <c r="F9">
         <f>$F$7*POWER(1+$B$4, C9-1)</f>
-        <v>393.26000000000005</v>
+        <v>716.625</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J9">
         <f t="shared" si="2"/>
-        <v>183.75343227666045</v>
+        <v>459.38358069165116</v>
       </c>
       <c r="K9">
         <f>(SUM(D9:G9)-SUM($I$7:I9)-J9)*POWER(1-$B$1, C9-1)</f>
-        <v>257.57646789837048</v>
+        <v>251.67180099592591</v>
       </c>
       <c r="M9">
         <f t="shared" si="3"/>
-        <v>257.57646789837048</v>
+        <v>251.67180099592591</v>
       </c>
       <c r="N9">
         <f>'case2-etf'!K9</f>
-        <v>257.37495000000007</v>
+        <v>252.57816249999999</v>
       </c>
       <c r="O9">
         <f>'case3-cash'!K9</f>
-        <v>247.85357499999998</v>
+        <v>244.99716249999997</v>
       </c>
       <c r="P9">
         <f t="shared" si="4"/>
-        <v>0.20151789837041179</v>
+        <v>-0.90636150407408422</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -825,43 +821,43 @@
       </c>
       <c r="E10">
         <f t="shared" si="6"/>
-        <v>62.985600000000005</v>
+        <v>61.252150000000007</v>
       </c>
       <c r="F10">
         <f t="shared" ref="F10:F36" si="7">$F$7*POWER(1+$B$4, C10-1)</f>
-        <v>416.85560000000009</v>
+        <v>752.45625000000007</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
-        <v>177.97108508488887</v>
+        <v>444.92771271222216</v>
       </c>
       <c r="K10">
         <f>(SUM(D10:G10)-SUM($I$7:I10)-J10)*POWER(1-$B$1, C10-1)</f>
-        <v>265.11357585879824</v>
+        <v>261.66179610012068</v>
       </c>
       <c r="M10">
         <f t="shared" si="3"/>
-        <v>265.11357585879824</v>
+        <v>261.66179610012068</v>
       </c>
       <c r="N10">
         <f>'case2-etf'!K10</f>
-        <v>261.17665905000001</v>
+        <v>253.90993436874999</v>
       </c>
       <c r="O10">
         <f>'case3-cash'!K10</f>
-        <v>246.8597826125</v>
+        <v>242.56549131874996</v>
       </c>
       <c r="P10">
         <f t="shared" si="4"/>
-        <v>3.9369168087982302</v>
+        <v>7.7518617313706955</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -874,43 +870,43 @@
       </c>
       <c r="E11">
         <f t="shared" si="6"/>
-        <v>68.024448000000021</v>
+        <v>65.539800499999998</v>
       </c>
       <c r="F11">
         <f t="shared" si="7"/>
-        <v>441.86693600000012</v>
+        <v>790.07906249999996</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J11">
         <f t="shared" si="2"/>
-        <v>171.99502926219293</v>
+        <v>429.98757315548238</v>
       </c>
       <c r="K11">
         <f>(SUM(D11:G11)-SUM($I$7:I11)-J11)*POWER(1-$B$1, C11-1)</f>
-        <v>272.9068323287824</v>
+        <v>272.1446476173449</v>
       </c>
       <c r="M11">
         <f t="shared" si="3"/>
-        <v>272.9068323287824</v>
+        <v>272.1446476173449</v>
       </c>
       <c r="N11">
         <f>'case2-etf'!K11</f>
-        <v>265.05698225775006</v>
+        <v>255.27076989286564</v>
       </c>
       <c r="O11">
         <f>'case3-cash'!K11</f>
-        <v>245.91770217765628</v>
+        <v>240.17901164836564</v>
       </c>
       <c r="P11">
         <f t="shared" si="4"/>
-        <v>7.8498500710323356</v>
+        <v>16.873877724479257</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -923,43 +919,43 @@
       </c>
       <c r="E12">
         <f t="shared" si="6"/>
-        <v>73.466403840000012</v>
+        <v>70.127586535000006</v>
       </c>
       <c r="F12">
         <f t="shared" si="7"/>
-        <v>468.37895216000015</v>
+        <v>829.58301562500003</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J12">
         <f t="shared" si="2"/>
-        <v>165.8187755694367</v>
+        <v>414.54693892359177</v>
       </c>
       <c r="K12">
         <f>(SUM(D12:G12)-SUM($I$7:I12)-J12)*POWER(1-$B$1, C12-1)</f>
-        <v>280.9240522806553</v>
+        <v>283.03821155309174</v>
       </c>
       <c r="M12">
         <f t="shared" si="3"/>
-        <v>280.9240522806553</v>
+        <v>283.03821155309174</v>
       </c>
       <c r="N12">
         <f>'case2-etf'!K12</f>
-        <v>269.01782197940872</v>
+        <v>256.66113089911164</v>
       </c>
       <c r="O12">
         <f>'case3-cash'!K12</f>
-        <v>245.02643430640097</v>
+        <v>237.83676959491211</v>
       </c>
       <c r="P12">
         <f t="shared" si="4"/>
-        <v>11.90623030124658</v>
+        <v>26.377080653980101</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -972,43 +968,43 @@
       </c>
       <c r="E13">
         <f t="shared" si="6"/>
-        <v>79.343716147200027</v>
+        <v>75.036517592449997</v>
       </c>
       <c r="F13">
         <f t="shared" si="7"/>
-        <v>496.48168928960018</v>
+        <v>871.06216640624996</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J13">
         <f t="shared" si="2"/>
-        <v>159.43561737797316</v>
+        <v>398.58904344493283</v>
       </c>
       <c r="K13">
         <f>(SUM(D13:G13)-SUM($I$7:I13)-J13)*POWER(1-$B$1, C13-1)</f>
-        <v>289.13596092718012</v>
+        <v>294.26754576322043</v>
       </c>
       <c r="M13">
         <f t="shared" si="3"/>
-        <v>289.13596092718012</v>
+        <v>294.26754576322043</v>
       </c>
       <c r="N13">
         <f>'case2-etf'!K13</f>
-        <v>273.0611290411112</v>
+        <v>258.08148687870306</v>
       </c>
       <c r="O13">
         <f>'case3-cash'!K13</f>
-        <v>244.18510043345657</v>
+        <v>235.53783172886529</v>
       </c>
       <c r="P13">
         <f t="shared" si="4"/>
-        <v>16.074831886068921</v>
+        <v>36.186058884517365</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1021,43 +1017,43 @@
       </c>
       <c r="E14">
         <f t="shared" si="6"/>
-        <v>85.691213438976035</v>
+        <v>80.289073823921512</v>
       </c>
       <c r="F14">
         <f t="shared" si="7"/>
-        <v>526.2705906469763</v>
+        <v>914.61527472656269</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>152.83862338709551</v>
+        <v>382.09655846773876</v>
       </c>
       <c r="K14">
         <f>(SUM(D14:G14)-SUM($I$7:I14)-J14)*POWER(1-$B$1, C14-1)</f>
-        <v>297.51598756522094</v>
+        <v>305.76439337783057</v>
       </c>
       <c r="M14">
         <f t="shared" si="3"/>
-        <v>297.51598756522094</v>
+        <v>305.76439337783057</v>
       </c>
       <c r="N14">
         <f>'case2-etf'!K14</f>
-        <v>277.18890399224966</v>
+        <v>259.5323151136584</v>
       </c>
       <c r="O14">
         <f>'case3-cash'!K14</f>
-        <v>243.39284238003299</v>
+        <v>233.281284645238</v>
       </c>
       <c r="P14">
         <f t="shared" si="4"/>
-        <v>20.327083572971276</v>
+        <v>46.232078264172173</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1070,43 +1066,43 @@
       </c>
       <c r="E15">
         <f t="shared" si="6"/>
-        <v>92.546510514094109</v>
+        <v>85.909308991596006</v>
       </c>
       <c r="F15">
         <f t="shared" si="7"/>
-        <v>557.84682608579476</v>
+        <v>960.34603846289065</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J15">
         <f t="shared" si="2"/>
-        <v>146.02063009752351</v>
+        <v>365.05157524380883</v>
       </c>
       <c r="K15">
         <f>(SUM(D15:G15)-SUM($I$7:I15)-J15)*POWER(1-$B$1, C15-1)</f>
-        <v>306.04007292666512</v>
+        <v>317.46669994646061</v>
       </c>
       <c r="M15">
         <f t="shared" si="3"/>
-        <v>306.04007292666512</v>
+        <v>317.46669994646061</v>
       </c>
       <c r="N15">
         <f>'case2-etf'!K15</f>
-        <v>281.40319839129012</v>
+        <v>261.01410080523686</v>
       </c>
       <c r="O15">
         <f>'case3-cash'!K15</f>
-        <v>242.64882192599927</v>
+        <v>231.06623453316226</v>
       </c>
       <c r="P15">
         <f t="shared" si="4"/>
-        <v>24.636874535375</v>
+        <v>56.452599141223743</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1119,43 +1115,43 @@
       </c>
       <c r="E16">
         <f t="shared" si="6"/>
-        <v>99.950231355221646</v>
+        <v>91.922960621007746</v>
       </c>
       <c r="F16">
         <f t="shared" si="7"/>
-        <v>591.31763565094252</v>
+        <v>1008.3633403860352</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J16">
         <f t="shared" si="2"/>
-        <v>138.97423403275084</v>
+        <v>347.43558508187709</v>
       </c>
       <c r="K16">
         <f>(SUM(D16:G16)-SUM($I$7:I16)-J16)*POWER(1-$B$1, C16-1)</f>
-        <v>314.68648920440387</v>
+        <v>329.31816222324443</v>
       </c>
       <c r="M16">
         <f t="shared" si="3"/>
-        <v>314.68648920440387</v>
+        <v>329.31816222324443</v>
       </c>
       <c r="N16">
         <f>'case2-etf'!K16</f>
-        <v>285.70611612497231</v>
+        <v>262.52733720449589</v>
       </c>
       <c r="O16">
         <f>'case3-cash'!K16</f>
-        <v>241.95222039132722</v>
+        <v>228.89180675472667</v>
       </c>
       <c r="P16">
         <f t="shared" si="4"/>
-        <v>28.980373079431558</v>
+        <v>66.790825018748535</v>
       </c>
     </row>
     <row r="17" spans="3:16">
@@ -1168,43 +1164,43 @@
       </c>
       <c r="E17">
         <f t="shared" si="6"/>
-        <v>107.94624986363939</v>
+        <v>98.357567864478284</v>
       </c>
       <c r="F17">
         <f t="shared" si="7"/>
-        <v>626.79669378999915</v>
+        <v>1058.7815074053369</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J17">
         <f t="shared" si="2"/>
-        <v>131.69178369980827</v>
+        <v>329.22945924952069</v>
       </c>
       <c r="K17">
         <f>(SUM(D17:G17)-SUM($I$7:I17)-J17)*POWER(1-$B$1, C17-1)</f>
-        <v>323.43567197072986</v>
+        <v>341.26780663449961</v>
       </c>
       <c r="M17">
         <f t="shared" si="3"/>
-        <v>323.43567197072986</v>
+        <v>341.26780663449961</v>
       </c>
       <c r="N17">
         <f>'case2-etf'!K17</f>
-        <v>290.09981476175892</v>
+        <v>264.07252574500274</v>
       </c>
       <c r="O17">
         <f>'case3-cash'!K17</f>
-        <v>241.30223822660787</v>
+        <v>226.75714543286742</v>
       </c>
       <c r="P17">
         <f t="shared" si="4"/>
-        <v>33.335857208970936</v>
+        <v>77.195280889496871</v>
       </c>
     </row>
     <row r="18" spans="3:16">
@@ -1217,43 +1213,43 @@
       </c>
       <c r="E18">
         <f t="shared" si="6"/>
-        <v>116.58194985273053</v>
+        <v>105.24259761499178</v>
       </c>
       <c r="F18">
         <f t="shared" si="7"/>
-        <v>664.40449541739918</v>
+        <v>1111.720582775604</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J18">
         <f t="shared" si="2"/>
-        <v>124.16537128071212</v>
+        <v>310.41342820178028</v>
       </c>
       <c r="K18">
         <f>(SUM(D18:G18)-SUM($I$7:I18)-J18)*POWER(1-$B$1, C18-1)</f>
-        <v>332.27006325219679</v>
+        <v>353.26959558791174</v>
       </c>
       <c r="M18">
         <f t="shared" si="3"/>
-        <v>332.27006325219679</v>
+        <v>353.26959558791174</v>
       </c>
       <c r="N18">
         <f>'case2-etf'!K18</f>
-        <v>294.58650694042467</v>
+        <v>265.6501761777364</v>
       </c>
       <c r="O18">
         <f>'case3-cash'!K18</f>
-        <v>240.69809461244574</v>
+        <v>224.66141304811964</v>
       </c>
       <c r="P18">
         <f t="shared" si="4"/>
-        <v>37.683556311772122</v>
+        <v>87.61941941017534</v>
       </c>
     </row>
     <row r="19" spans="3:16">
@@ -1266,43 +1262,43 @@
       </c>
       <c r="E19">
         <f t="shared" si="6"/>
-        <v>125.90850584094899</v>
+        <v>112.60957944804117</v>
       </c>
       <c r="F19">
         <f t="shared" si="7"/>
-        <v>704.26876514244316</v>
+        <v>1167.3066119143839</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J19">
         <f t="shared" si="2"/>
-        <v>116.38682404557625</v>
+        <v>290.96706011394065</v>
       </c>
       <c r="K19">
         <f>(SUM(D19:G19)-SUM($I$7:I19)-J19)*POWER(1-$B$1, C19-1)</f>
-        <v>341.17396506895477</v>
+        <v>365.28205989236727</v>
       </c>
       <c r="M19">
         <f t="shared" si="3"/>
-        <v>341.17396506895477</v>
+        <v>365.28205989236727</v>
       </c>
       <c r="N19">
         <f>'case2-etf'!K19</f>
-        <v>299.16846179469974</v>
+        <v>267.26080670821523</v>
       </c>
       <c r="O19">
         <f>'case3-cash'!K19</f>
-        <v>240.13902706754209</v>
+        <v>222.60379004403882</v>
       </c>
       <c r="P19">
         <f t="shared" si="4"/>
-        <v>42.005503274255034</v>
+        <v>98.021253184152044</v>
       </c>
     </row>
     <row r="20" spans="3:16">
@@ -1315,43 +1311,43 @@
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>135.98118630822492</v>
+        <v>120.49225000940407</v>
       </c>
       <c r="F20">
         <f t="shared" si="7"/>
-        <v>746.52489105098982</v>
+        <v>1225.6719425101035</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J20">
         <f t="shared" si="2"/>
-        <v>108.34769547806334</v>
+        <v>270.86923869515834</v>
       </c>
       <c r="K20">
         <f>(SUM(D20:G20)-SUM($I$7:I20)-J20)*POWER(1-$B$1, C20-1)</f>
-        <v>350.13340278799456</v>
+        <v>377.26795566100873</v>
       </c>
       <c r="M20">
         <f t="shared" si="3"/>
-        <v>350.13340278799456</v>
+        <v>377.26795566100873</v>
       </c>
       <c r="N20">
         <f>'case2-etf'!K20</f>
-        <v>303.84800641490278</v>
+        <v>268.90494413588823</v>
       </c>
       <c r="O20">
         <f>'case3-cash'!K20</f>
-        <v>239.62429106527875</v>
+        <v>220.58347444110464</v>
       </c>
       <c r="P20">
         <f t="shared" si="4"/>
-        <v>46.285396373091771</v>
+        <v>108.3630115251205</v>
       </c>
     </row>
     <row r="21" spans="3:16">
@@ -1364,43 +1360,43 @@
       </c>
       <c r="E21">
         <f t="shared" si="6"/>
-        <v>146.85968121288292</v>
+        <v>128.92670751006236</v>
       </c>
       <c r="F21">
         <f t="shared" si="7"/>
-        <v>791.3163845140491</v>
+        <v>1286.9555396356084</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J21">
         <f t="shared" si="2"/>
-        <v>100.03925610353879</v>
+        <v>250.098140258847</v>
       </c>
       <c r="K21">
         <f>(SUM(D21:G21)-SUM($I$7:I21)-J21)*POWER(1-$B$1, C21-1)</f>
-        <v>359.13599767874354</v>
+        <v>389.19394416756353</v>
       </c>
       <c r="M21">
         <f t="shared" si="3"/>
-        <v>359.13599767874354</v>
+        <v>389.19394416756353</v>
       </c>
       <c r="N21">
         <f>'case2-etf'!K21</f>
-        <v>308.62752734752587</v>
+        <v>270.58312399582519</v>
       </c>
       <c r="O21">
         <f>'case3-cash'!K21</f>
-        <v>239.15315965862189</v>
+        <v>218.59968145892594</v>
       </c>
       <c r="P21">
         <f t="shared" si="4"/>
-        <v>50.508470331217666</v>
+        <v>118.61082017173834</v>
       </c>
     </row>
     <row r="22" spans="3:16">
@@ -1413,43 +1409,43 @@
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>158.60845570991358</v>
+        <v>137.95157703576672</v>
       </c>
       <c r="F22">
         <f t="shared" si="7"/>
-        <v>838.79536758489235</v>
+        <v>1351.3033166173891</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J22">
         <f t="shared" si="2"/>
-        <v>91.452484009967563</v>
+        <v>228.63121002491891</v>
       </c>
       <c r="K22">
         <f>(SUM(D22:G22)-SUM($I$7:I22)-J22)*POWER(1-$B$1, C22-1)</f>
-        <v>368.17084809619223</v>
+        <v>401.03029321782066</v>
       </c>
       <c r="M22">
         <f t="shared" si="3"/>
-        <v>368.17084809619223</v>
+        <v>401.03029321782066</v>
       </c>
       <c r="N22">
         <f>'case2-etf'!K22</f>
-        <v>313.50947213375809</v>
+        <v>272.29589070274704</v>
       </c>
       <c r="O22">
         <f>'case3-cash'!K22</f>
-        <v>238.72492311316691</v>
+        <v>216.65164314656846</v>
       </c>
       <c r="P22">
         <f t="shared" si="4"/>
-        <v>54.661375962434136</v>
+        <v>128.73440251507361</v>
       </c>
     </row>
     <row r="23" spans="3:16">
@@ -1462,43 +1458,43 @@
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>171.29713216670666</v>
+        <v>147.60818742827038</v>
       </c>
       <c r="F23">
         <f t="shared" si="7"/>
-        <v>889.12308963998566</v>
+        <v>1418.8684824482584</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J23">
         <f t="shared" si="2"/>
-        <v>82.578055051261785</v>
+        <v>206.44513762815444</v>
       </c>
       <c r="K23">
         <f>(SUM(D23:G23)-SUM($I$7:I23)-J23)*POWER(1-$B$1, C23-1)</f>
-        <v>377.22841875132013</v>
+        <v>412.75059868456009</v>
       </c>
       <c r="M23">
         <f t="shared" si="3"/>
-        <v>377.22841875132013</v>
+        <v>412.75059868456009</v>
       </c>
       <c r="N23">
         <f>'case2-etf'!K23</f>
-        <v>318.4963508879585</v>
+        <v>274.04379769743053</v>
       </c>
       <c r="O23">
         <f>'case3-cash'!K23</f>
-        <v>238.33888854814955</v>
+        <v>214.73860802082902</v>
       </c>
       <c r="P23">
         <f t="shared" si="4"/>
-        <v>58.732067863361635</v>
+        <v>138.70680098712955</v>
       </c>
     </row>
     <row r="24" spans="3:16">
@@ -1511,43 +1507,43 @@
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>185.00090274004319</v>
+        <v>157.9407605482493</v>
       </c>
       <c r="F24">
         <f t="shared" si="7"/>
-        <v>942.47047501838495</v>
+        <v>1489.8119065706715</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>73.40633272243933</v>
+        <v>183.51583180609833</v>
       </c>
       <c r="K24">
         <f>(SUM(D24:G24)-SUM($I$7:I24)-J24)*POWER(1-$B$1, C24-1)</f>
-        <v>386.30043756117647</v>
+        <v>424.33152493566718</v>
       </c>
       <c r="M24">
         <f t="shared" si="3"/>
-        <v>386.30043756117647</v>
+        <v>424.33152493566718</v>
       </c>
       <c r="N24">
         <f>'case2-etf'!K24</f>
-        <v>323.59073791711933</v>
+        <v>275.82740759553104</v>
       </c>
       <c r="O24">
         <f>'case3-cash'!K24</f>
-        <v>237.99437958525351</v>
+        <v>212.85984071228825</v>
       </c>
       <c r="P24">
         <f t="shared" si="4"/>
-        <v>62.709699644057139</v>
+        <v>148.50411734013613</v>
       </c>
     </row>
     <row r="25" spans="3:16">
@@ -1560,43 +1556,43 @@
       </c>
       <c r="E25">
         <f t="shared" si="6"/>
-        <v>199.80097495924667</v>
+        <v>168.99661378662677</v>
       </c>
       <c r="F25">
         <f t="shared" si="7"/>
-        <v>999.01870351948799</v>
+        <v>1564.302501899205</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J25">
         <f t="shared" si="2"/>
-        <v>63.927357695601323</v>
+        <v>159.81839423900334</v>
       </c>
       <c r="K25">
         <f>(SUM(D25:G25)-SUM($I$7:I25)-J25)*POWER(1-$B$1, C25-1)</f>
-        <v>395.37979960162352</v>
+        <v>435.75256296177554</v>
       </c>
       <c r="M25">
         <f t="shared" si="3"/>
-        <v>395.37979960162352</v>
+        <v>435.75256296177554</v>
       </c>
       <c r="N25">
         <f>'case2-etf'!K25</f>
-        <v>328.7952733823808</v>
+        <v>277.64729233886004</v>
       </c>
       <c r="O25">
         <f>'case3-cash'!K25</f>
-        <v>237.69073600504601</v>
+        <v>211.01462161897132</v>
       </c>
       <c r="P25">
         <f t="shared" si="4"/>
-        <v>66.584526219242719</v>
+        <v>158.1052706229155</v>
       </c>
     </row>
     <row r="26" spans="3:16">
@@ -1609,44 +1605,44 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" si="6"/>
-        <v>215.78505295598643</v>
+        <v>180.82637675169065</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="7"/>
-        <v>1058.9598257306575</v>
+        <v>1642.5176269941653</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J26">
         <f t="shared" si="2"/>
-        <v>54.130837005364235</v>
+        <v>135.32709251341058</v>
       </c>
       <c r="K26">
         <f>(SUM(D26:G26)-SUM($I$7:I26)-J26)*POWER(1-$B$1, C26-1)</f>
-        <v>404.46047771464663</v>
+        <v>446.99580508196163</v>
       </c>
       <c r="M26">
         <f t="shared" si="3"/>
-        <v>404.46047771464663</v>
+        <v>446.99580508196163</v>
       </c>
       <c r="N26">
         <f>'case2-etf'!K26</f>
-        <v>334.11266500369504</v>
+        <v>279.50403334915899</v>
       </c>
       <c r="O26">
         <f>'case3-cash'!K26</f>
-        <v>237.42731341087907</v>
+        <v>209.20224656745566</v>
       </c>
       <c r="P26">
         <f t="shared" si="4"/>
-        <v>70.347812710951587</v>
+        <v>167.49177173280265</v>
       </c>
     </row>
     <row r="27" spans="3:16">
@@ -1659,43 +1655,43 @@
       </c>
       <c r="E27">
         <f t="shared" si="6"/>
-        <v>233.04785719246533</v>
+        <v>193.48422312430898</v>
       </c>
       <c r="F27">
         <f t="shared" si="7"/>
-        <v>1122.4974152744967</v>
+        <v>1724.6435083438735</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J27">
         <f t="shared" si="2"/>
-        <v>44.006132872004194</v>
+        <v>110.01533218001049</v>
       </c>
       <c r="K27">
         <f>(SUM(D27:G27)-SUM($I$7:I27)-J27)*POWER(1-$B$1, C27-1)</f>
-        <v>413.53743934929895</v>
+        <v>458.04573517391259</v>
       </c>
       <c r="M27">
         <f t="shared" si="3"/>
-        <v>413.53743934929895</v>
+        <v>458.04573517391259</v>
       </c>
       <c r="N27">
         <f>'case2-etf'!K27</f>
-        <v>339.545689808757</v>
+        <v>281.39822168441106</v>
       </c>
       <c r="O27">
         <f>'case3-cash'!K27</f>
-        <v>237.2034829000963</v>
+        <v>207.42202648126442</v>
       </c>
       <c r="P27">
         <f t="shared" si="4"/>
-        <v>73.991749540541946</v>
+        <v>176.64751348950153</v>
       </c>
     </row>
     <row r="28" spans="3:16">
@@ -1708,43 +1704,43 @@
       </c>
       <c r="E28">
         <f t="shared" si="6"/>
-        <v>251.69168576786257</v>
+        <v>207.02811874301062</v>
       </c>
       <c r="F28">
         <f t="shared" si="7"/>
-        <v>1189.8472601909668</v>
+        <v>1810.8756837610672</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J28">
         <f t="shared" si="2"/>
-        <v>33.542251150176632</v>
+        <v>83.855627875441584</v>
       </c>
       <c r="K28">
         <f>(SUM(D28:G28)-SUM($I$7:I28)-J28)*POWER(1-$B$1, C28-1)</f>
-        <v>422.60656924095423</v>
+        <v>468.88903343893509</v>
       </c>
       <c r="M28">
         <f t="shared" si="3"/>
-        <v>422.60656924095423</v>
+        <v>468.88903343893509</v>
       </c>
       <c r="N28">
         <f>'case2-etf'!K28</f>
-        <v>345.09719592735547</v>
+        <v>283.33045819773236</v>
       </c>
       <c r="O28">
         <f>'case3-cash'!K28</f>
-        <v>237.0186307423883</v>
+        <v>205.67328705638877</v>
       </c>
       <c r="P28">
         <f t="shared" si="4"/>
-        <v>77.509373313598758</v>
+        <v>185.55857524120273</v>
       </c>
     </row>
     <row r="29" spans="3:16">
@@ -1757,43 +1753,43 @@
       </c>
       <c r="E29">
         <f t="shared" si="6"/>
-        <v>271.82702062929161</v>
+        <v>221.52008705502135</v>
       </c>
       <c r="F29">
         <f t="shared" si="7"/>
-        <v>1261.2380958024248</v>
+        <v>1901.4194679491204</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J29">
         <f t="shared" si="2"/>
-        <v>22.727829390667818</v>
+        <v>56.81957347666954</v>
       </c>
       <c r="K29">
         <f>(SUM(D29:G29)-SUM($I$7:I29)-J29)*POWER(1-$B$1, C29-1)</f>
-        <v>431.664597557609</v>
+        <v>479.51439477233743</v>
       </c>
       <c r="M29">
         <f t="shared" si="3"/>
-        <v>431.664597557609</v>
+        <v>479.51439477233743</v>
       </c>
       <c r="N29">
         <f>'case2-etf'!K29</f>
-        <v>350.77010443232228</v>
+        <v>285.30135369888455</v>
       </c>
       <c r="O29">
         <f>'case3-cash'!K29</f>
-        <v>236.87215806514337</v>
+        <v>203.95536844378674</v>
       </c>
       <c r="P29">
         <f t="shared" si="4"/>
-        <v>80.894493125286715</v>
+        <v>194.21304107345287</v>
       </c>
     </row>
     <row r="30" spans="3:16">
@@ -1806,43 +1802,43 @@
       </c>
       <c r="E30">
         <f t="shared" si="6"/>
-        <v>293.57318227963492</v>
+        <v>237.02649314887285</v>
       </c>
       <c r="F30">
         <f t="shared" si="7"/>
-        <v>1336.9123815505707</v>
+        <v>1996.490441346577</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J30">
         <f t="shared" si="2"/>
-        <v>11.551124502215458</v>
+        <v>28.877811255538649</v>
       </c>
       <c r="K30">
         <f>(SUM(D30:G30)-SUM($I$7:I30)-J30)*POWER(1-$B$1, C30-1)</f>
-        <v>440.70903316466212</v>
+        <v>489.91235986635326</v>
       </c>
       <c r="M30">
         <f t="shared" si="3"/>
-        <v>440.70903316466212</v>
+        <v>489.91235986635326</v>
       </c>
       <c r="N30">
         <f>'case2-etf'!K30</f>
-        <v>356.56741122829447</v>
+        <v>287.31152911845362</v>
       </c>
       <c r="O30">
         <f>'case3-cash'!K30</f>
-        <v>236.76348054564539</v>
+        <v>202.26762493870794</v>
       </c>
       <c r="P30">
         <f t="shared" si="4"/>
-        <v>84.141621936367642</v>
+        <v>202.60083074789964</v>
       </c>
     </row>
     <row r="31" spans="3:16" s="1" customFormat="1">
@@ -1855,20 +1851,20 @@
       </c>
       <c r="E31" s="4">
         <f t="shared" si="6"/>
-        <v>317.05903686200571</v>
+        <v>253.61834766929397</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" si="7"/>
-        <v>1417.1271244436045</v>
+        <v>2096.3149634139054</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I31" s="4">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="2"/>
@@ -1876,23 +1872,23 @@
       </c>
       <c r="K31">
         <f>(SUM(D31:G31)-SUM($I$7:I31)-J31)*POWER(1-$B$1, C31-1)</f>
-        <v>449.7381016809112</v>
+        <v>500.0751582260533</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="3"/>
-        <v>449.7381016809112</v>
+        <v>500.0751582260533</v>
       </c>
       <c r="N31" s="1">
         <f>'case2-etf'!K31</f>
-        <v>362.49218898952688</v>
+        <v>289.3616156747367</v>
       </c>
       <c r="O31" s="1">
         <f>'case3-cash'!K31</f>
-        <v>236.69202810996885</v>
-      </c>
-      <c r="P31" s="19">
-        <f t="shared" si="4"/>
-        <v>87.245912691384319</v>
+        <v>200.6094246766971</v>
+      </c>
+      <c r="P31" s="15">
+        <f t="shared" si="4"/>
+        <v>210.71354255131661</v>
       </c>
     </row>
     <row r="32" spans="3:16">
@@ -1905,43 +1901,43 @@
       </c>
       <c r="E32">
         <f t="shared" si="6"/>
-        <v>342.42375981096626</v>
+        <v>271.37163200614458</v>
       </c>
       <c r="F32">
         <f t="shared" si="7"/>
-        <v>1502.154751910221</v>
+        <v>2201.1307115846007</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J32">
         <f t="shared" si="2"/>
-        <v>-11.938087173039774</v>
+        <v>-29.845217932599432</v>
       </c>
       <c r="K32">
         <f>(SUM(D32:G32)-SUM($I$7:I32)-J32)*POWER(1-$B$1, C32-1)</f>
-        <v>458.75068801860175</v>
+        <v>509.99656232885309</v>
       </c>
       <c r="M32">
         <f t="shared" si="3"/>
-        <v>458.75068801860175</v>
+        <v>509.99656232885309</v>
       </c>
       <c r="N32">
         <f>'case2-etf'!K32</f>
-        <v>368.54758914803637</v>
+        <v>291.45225504338384</v>
       </c>
       <c r="O32">
         <f>'case3-cash'!K32</f>
-        <v>236.65724463843168</v>
+        <v>198.98014933613408</v>
       </c>
       <c r="P32">
         <f t="shared" si="4"/>
-        <v>90.203098870565384</v>
+        <v>218.54430728546924</v>
       </c>
     </row>
     <row r="33" spans="3:16">
@@ -1954,43 +1950,43 @@
       </c>
       <c r="E33">
         <f t="shared" si="6"/>
-        <v>369.81766059584351</v>
+        <v>290.36764624657462</v>
       </c>
       <c r="F33">
         <f t="shared" si="7"/>
-        <v>1592.2840370248341</v>
+        <v>2311.1872471638308</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J33">
         <f t="shared" si="2"/>
-        <v>-24.276100266376343</v>
+        <v>-60.690250665940866</v>
       </c>
       <c r="K33">
         <f>(SUM(D33:G33)-SUM($I$7:I33)-J33)*POWER(1-$B$1, C33-1)</f>
-        <v>467.74628311923084</v>
+        <v>519.67175220537968</v>
       </c>
       <c r="M33">
         <f t="shared" si="3"/>
-        <v>467.74628311923084</v>
+        <v>519.67175220537968</v>
       </c>
       <c r="N33">
         <f>'case2-etf'!K33</f>
-        <v>374.73684393338067</v>
+        <v>293.58409952983862</v>
       </c>
       <c r="O33">
         <f>'case3-cash'!K33</f>
-        <v>236.65858767746244</v>
+        <v>197.37919384716824</v>
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
-        <v>93.009439185850169</v>
+        <v>226.08765267554105</v>
       </c>
     </row>
     <row r="34" spans="3:16">
@@ -2003,43 +1999,43 @@
       </c>
       <c r="E34">
         <f t="shared" si="6"/>
-        <v>399.403073443511</v>
+        <v>310.69338148383497</v>
       </c>
       <c r="F34">
         <f t="shared" si="7"/>
-        <v>1687.8210792463246</v>
+        <v>2426.7466095220225</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J34">
         <f t="shared" si="2"/>
-        <v>-37.0274367983397</v>
+        <v>-92.568591995849246</v>
       </c>
       <c r="K34">
         <f>(SUM(D34:G34)-SUM($I$7:I34)-J34)*POWER(1-$B$1, C34-1)</f>
-        <v>476.7249346145976</v>
+        <v>529.09718976386114</v>
       </c>
       <c r="M34">
         <f t="shared" si="3"/>
-        <v>476.7249346145976</v>
+        <v>529.09718976386114</v>
       </c>
       <c r="N34">
         <f>'case2-etf'!K34</f>
-        <v>381.0632684654164</v>
+        <v>295.7578122446244</v>
       </c>
       <c r="O34">
         <f>'case3-cash'!K34</f>
-        <v>236.69552815774531</v>
+        <v>195.80596610691074</v>
       </c>
       <c r="P34">
         <f t="shared" si="4"/>
-        <v>95.661666149181201</v>
+        <v>233.33937751923673</v>
       </c>
     </row>
     <row r="35" spans="3:16">
@@ -2052,43 +2048,43 @@
       </c>
       <c r="E35">
         <f t="shared" si="6"/>
-        <v>431.35531931899192</v>
+        <v>332.44191818770332</v>
       </c>
       <c r="F35">
         <f t="shared" si="7"/>
-        <v>1789.0903440011041</v>
+        <v>2548.0839399981232</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J35">
         <f t="shared" si="2"/>
-        <v>-50.205943104123868</v>
+        <v>-125.51485776030968</v>
       </c>
       <c r="K35">
         <f>(SUM(D35:G35)-SUM($I$7:I35)-J35)*POWER(1-$B$1, C35-1)</f>
-        <v>485.68720115929619</v>
+        <v>538.27050222194202</v>
       </c>
       <c r="M35">
         <f t="shared" si="3"/>
-        <v>485.68720115929619</v>
+        <v>538.27050222194202</v>
       </c>
       <c r="N35">
         <f>'case2-etf'!K35</f>
-        <v>387.53026290141332</v>
+        <v>297.97406728152265</v>
       </c>
       <c r="O35">
         <f>'case3-cash'!K35</f>
-        <v>236.76755011850952</v>
+        <v>194.25988670075009</v>
       </c>
       <c r="P35">
         <f t="shared" si="4"/>
-        <v>98.156938257882871</v>
+        <v>240.29643494041937</v>
       </c>
     </row>
     <row r="36" spans="3:16">
@@ -2101,43 +2097,43 @@
       </c>
       <c r="E36">
         <f t="shared" si="6"/>
-        <v>465.86374486451126</v>
+        <v>355.71285246084256</v>
       </c>
       <c r="F36">
         <f t="shared" si="7"/>
-        <v>1896.4357646411704</v>
+        <v>2675.4881369980303</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>0.98522997759136788</v>
+        <v>2.4630749439784196</v>
       </c>
       <c r="I36">
         <f t="shared" si="1"/>
-        <v>11.822759731096415</v>
+        <v>29.556899327741036</v>
       </c>
       <c r="J36">
         <f t="shared" si="2"/>
-        <v>-63.825929371151723</v>
+        <v>-159.5648234278793</v>
       </c>
       <c r="K36">
         <f>(SUM(D36:G36)-SUM($I$7:I36)-J36)*POWER(1-$B$1, C36-1)</f>
-        <v>494.63411019658412</v>
+        <v>547.19037404910569</v>
       </c>
       <c r="M36">
         <f t="shared" si="3"/>
-        <v>494.63411019658412</v>
+        <v>547.19037404910569</v>
       </c>
       <c r="N36">
         <f>'case2-etf'!K36</f>
-        <v>394.14131463893762</v>
+        <v>300.23354989869273</v>
       </c>
       <c r="O36">
         <f>'case3-cash'!K36</f>
-        <v>236.87415043783045</v>
-      </c>
-      <c r="P36" s="20">
-        <f t="shared" si="4"/>
-        <v>100.4927955576465</v>
+        <v>192.74038862965909</v>
+      </c>
+      <c r="P36" s="16">
+        <f t="shared" si="4"/>
+        <v>246.95682415041296</v>
       </c>
     </row>
   </sheetData>
@@ -2191,7 +2187,7 @@
       <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="18">
+      <c r="H1">
         <f>'case1-average'!H1</f>
         <v>150</v>
       </c>
@@ -2207,7 +2203,7 @@
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="9">
         <f>'case1-average'!E2</f>
         <v>25</v>
       </c>
@@ -2218,12 +2214,12 @@
       </c>
       <c r="B3" s="6">
         <f>'case1-average'!B3</f>
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2233,25 +2229,20 @@
       </c>
       <c r="B4" s="6">
         <f>'case1-average'!B4</f>
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <f>'case1-average'!B5</f>
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2285,8 +2276,7 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
+      <c r="B7" s="8"/>
       <c r="C7">
         <v>1</v>
       </c>
@@ -2296,7 +2286,7 @@
       <c r="E7" s="3">
         <v>100</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="14">
         <f>E1+H1</f>
         <v>150</v>
       </c>
@@ -2319,8 +2309,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
+      <c r="B8" s="8"/>
       <c r="C8">
         <v>2</v>
       </c>
@@ -2330,11 +2319,11 @@
       </c>
       <c r="E8">
         <f>$E$7*POWER(1+$B$3, C8-1)</f>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8">
         <f>$F$7*POWER(1+$B$4, C8-1)</f>
-        <v>159</v>
+        <v>157.5</v>
       </c>
       <c r="H8">
         <f t="shared" ref="H8:H36" si="0">$E$1*$B$5/12*POWER(1+$B$5/12, $E$2*12)/(POWER(1+$B$5/12, $E$2*12)-1)</f>
@@ -2350,12 +2339,11 @@
       </c>
       <c r="K8">
         <f>(SUM(D8:G8)-SUM($I$7:I8)-J8)*POWER(1-$B$1, C8-1)</f>
-        <v>253.64999999999998</v>
+        <v>251.27499999999998</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
+      <c r="B9" s="8"/>
       <c r="C9">
         <v>3</v>
       </c>
@@ -2365,11 +2353,11 @@
       </c>
       <c r="E9">
         <f t="shared" ref="E9:E36" si="4">$E$7*POWER(1+$B$3, C9-1)</f>
-        <v>116.64000000000001</v>
+        <v>114.49000000000001</v>
       </c>
       <c r="F9">
         <f>$F$7*POWER(1+$B$4, C9-1)</f>
-        <v>168.54000000000002</v>
+        <v>165.375</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
@@ -2385,12 +2373,10 @@
       </c>
       <c r="K9">
         <f>(SUM(D9:G9)-SUM($I$7:I9)-J9)*POWER(1-$B$1, C9-1)</f>
-        <v>257.37495000000007</v>
+        <v>252.57816249999999</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
       <c r="C10">
         <v>4</v>
       </c>
@@ -2400,11 +2386,11 @@
       </c>
       <c r="E10">
         <f t="shared" si="4"/>
-        <v>125.97120000000001</v>
+        <v>122.50430000000001</v>
       </c>
       <c r="F10">
         <f t="shared" ref="F10:F36" si="5">$F$7*POWER(1+$B$4, C10-1)</f>
-        <v>178.65240000000006</v>
+        <v>173.64375000000001</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
@@ -2420,12 +2406,10 @@
       </c>
       <c r="K10">
         <f>(SUM(D10:G10)-SUM($I$7:I10)-J10)*POWER(1-$B$1, C10-1)</f>
-        <v>261.17665905000001</v>
+        <v>253.90993436874999</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
       <c r="C11">
         <v>5</v>
       </c>
@@ -2435,11 +2419,11 @@
       </c>
       <c r="E11">
         <f t="shared" si="4"/>
-        <v>136.04889600000004</v>
+        <v>131.079601</v>
       </c>
       <c r="F11">
         <f t="shared" si="5"/>
-        <v>189.37154400000006</v>
+        <v>182.32593750000001</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
@@ -2455,12 +2439,10 @@
       </c>
       <c r="K11">
         <f>(SUM(D11:G11)-SUM($I$7:I11)-J11)*POWER(1-$B$1, C11-1)</f>
-        <v>265.05698225775006</v>
+        <v>255.27076989286564</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
       <c r="C12">
         <v>6</v>
       </c>
@@ -2470,11 +2452,11 @@
       </c>
       <c r="E12">
         <f t="shared" si="4"/>
-        <v>146.93280768000002</v>
+        <v>140.25517307000001</v>
       </c>
       <c r="F12">
         <f t="shared" si="5"/>
-        <v>200.73383664000008</v>
+        <v>191.44223437500003</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
@@ -2490,12 +2472,10 @@
       </c>
       <c r="K12">
         <f>(SUM(D12:G12)-SUM($I$7:I12)-J12)*POWER(1-$B$1, C12-1)</f>
-        <v>269.01782197940872</v>
+        <v>256.66113089911164</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
       <c r="C13">
         <v>7</v>
       </c>
@@ -2505,11 +2485,11 @@
       </c>
       <c r="E13">
         <f t="shared" si="4"/>
-        <v>158.68743229440005</v>
+        <v>150.07303518489999</v>
       </c>
       <c r="F13">
         <f t="shared" si="5"/>
-        <v>212.77786683840009</v>
+        <v>201.01434609374999</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
@@ -2525,7 +2505,7 @@
       </c>
       <c r="K13">
         <f>(SUM(D13:G13)-SUM($I$7:I13)-J13)*POWER(1-$B$1, C13-1)</f>
-        <v>273.0611290411112</v>
+        <v>258.08148687870306</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -2538,11 +2518,11 @@
       </c>
       <c r="E14">
         <f t="shared" si="4"/>
-        <v>171.38242687795207</v>
+        <v>160.57814764784302</v>
       </c>
       <c r="F14">
         <f t="shared" si="5"/>
-        <v>225.54453884870412</v>
+        <v>211.06506339843753</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
@@ -2558,7 +2538,7 @@
       </c>
       <c r="K14">
         <f>(SUM(D14:G14)-SUM($I$7:I14)-J14)*POWER(1-$B$1, C14-1)</f>
-        <v>277.18890399224966</v>
+        <v>259.5323151136584</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2571,11 +2551,11 @@
       </c>
       <c r="E15">
         <f t="shared" si="4"/>
-        <v>185.09302102818822</v>
+        <v>171.81861798319201</v>
       </c>
       <c r="F15">
         <f t="shared" si="5"/>
-        <v>239.07721117962635</v>
+        <v>221.61831656835938</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
@@ -2591,7 +2571,7 @@
       </c>
       <c r="K15">
         <f>(SUM(D15:G15)-SUM($I$7:I15)-J15)*POWER(1-$B$1, C15-1)</f>
-        <v>281.40319839129012</v>
+        <v>261.01410080523686</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2604,11 +2584,11 @@
       </c>
       <c r="E16">
         <f t="shared" si="4"/>
-        <v>199.90046271044329</v>
+        <v>183.84592124201549</v>
       </c>
       <c r="F16">
         <f t="shared" si="5"/>
-        <v>253.42184385040392</v>
+        <v>232.69923239677738</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
@@ -2624,7 +2604,7 @@
       </c>
       <c r="K16">
         <f>(SUM(D16:G16)-SUM($I$7:I16)-J16)*POWER(1-$B$1, C16-1)</f>
-        <v>285.70611612497231</v>
+        <v>262.52733720449589</v>
       </c>
     </row>
     <row r="17" spans="3:15">
@@ -2637,11 +2617,11 @@
       </c>
       <c r="E17">
         <f t="shared" si="4"/>
-        <v>215.89249972727879</v>
+        <v>196.71513572895657</v>
       </c>
       <c r="F17">
         <f t="shared" si="5"/>
-        <v>268.62715448142819</v>
+        <v>244.33419401661624</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
@@ -2657,7 +2637,7 @@
       </c>
       <c r="K17">
         <f>(SUM(D17:G17)-SUM($I$7:I17)-J17)*POWER(1-$B$1, C17-1)</f>
-        <v>290.09981476175892</v>
+        <v>264.07252574500274</v>
       </c>
     </row>
     <row r="18" spans="3:15">
@@ -2670,11 +2650,11 @@
       </c>
       <c r="E18">
         <f t="shared" si="4"/>
-        <v>233.16389970546106</v>
+        <v>210.48519522998356</v>
       </c>
       <c r="F18">
         <f t="shared" si="5"/>
-        <v>284.7447837503139</v>
+        <v>256.55090371744706</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
@@ -2690,7 +2670,7 @@
       </c>
       <c r="K18">
         <f>(SUM(D18:G18)-SUM($I$7:I18)-J18)*POWER(1-$B$1, C18-1)</f>
-        <v>294.58650694042467</v>
+        <v>265.6501761777364</v>
       </c>
     </row>
     <row r="19" spans="3:15">
@@ -2703,11 +2683,11 @@
       </c>
       <c r="E19">
         <f t="shared" si="4"/>
-        <v>251.81701168189798</v>
+        <v>225.21915889608235</v>
       </c>
       <c r="F19">
         <f t="shared" si="5"/>
-        <v>301.82947077533277</v>
+        <v>269.37844890331939</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
@@ -2723,7 +2703,7 @@
       </c>
       <c r="K19">
         <f>(SUM(D19:G19)-SUM($I$7:I19)-J19)*POWER(1-$B$1, C19-1)</f>
-        <v>299.16846179469974</v>
+        <v>267.26080670821523</v>
       </c>
     </row>
     <row r="20" spans="3:15">
@@ -2736,11 +2716,11 @@
       </c>
       <c r="E20">
         <f t="shared" si="4"/>
-        <v>271.96237261644984</v>
+        <v>240.98450001880815</v>
       </c>
       <c r="F20">
         <f t="shared" si="5"/>
-        <v>319.93923902185276</v>
+        <v>282.84737134848541</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
@@ -2756,7 +2736,7 @@
       </c>
       <c r="K20">
         <f>(SUM(D20:G20)-SUM($I$7:I20)-J20)*POWER(1-$B$1, C20-1)</f>
-        <v>303.84800641490278</v>
+        <v>268.90494413588823</v>
       </c>
     </row>
     <row r="21" spans="3:15">
@@ -2769,11 +2749,11 @@
       </c>
       <c r="E21">
         <f t="shared" si="4"/>
-        <v>293.71936242576584</v>
+        <v>257.85341502012471</v>
       </c>
       <c r="F21">
         <f t="shared" si="5"/>
-        <v>339.13559336316393</v>
+        <v>296.98973991590958</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
@@ -2789,7 +2769,7 @@
       </c>
       <c r="K21">
         <f>(SUM(D21:G21)-SUM($I$7:I21)-J21)*POWER(1-$B$1, C21-1)</f>
-        <v>308.62752734752587</v>
+        <v>270.58312399582519</v>
       </c>
     </row>
     <row r="22" spans="3:15">
@@ -2802,11 +2782,11 @@
       </c>
       <c r="E22">
         <f t="shared" si="4"/>
-        <v>317.21691141982717</v>
+        <v>275.90315407153344</v>
       </c>
       <c r="F22">
         <f t="shared" si="5"/>
-        <v>359.48372896495385</v>
+        <v>311.83922691170517</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
@@ -2822,7 +2802,7 @@
       </c>
       <c r="K22">
         <f>(SUM(D22:G22)-SUM($I$7:I22)-J22)*POWER(1-$B$1, C22-1)</f>
-        <v>313.50947213375809</v>
+        <v>272.29589070274704</v>
       </c>
     </row>
     <row r="23" spans="3:15">
@@ -2835,11 +2815,11 @@
       </c>
       <c r="E23">
         <f t="shared" si="4"/>
-        <v>342.59426433341332</v>
+        <v>295.21637485654077</v>
       </c>
       <c r="F23">
         <f t="shared" si="5"/>
-        <v>381.05275270285097</v>
+        <v>327.43118825729039</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
@@ -2855,7 +2835,7 @@
       </c>
       <c r="K23">
         <f>(SUM(D23:G23)-SUM($I$7:I23)-J23)*POWER(1-$B$1, C23-1)</f>
-        <v>318.4963508879585</v>
+        <v>274.04379769743053</v>
       </c>
     </row>
     <row r="24" spans="3:15">
@@ -2868,11 +2848,11 @@
       </c>
       <c r="E24">
         <f t="shared" si="4"/>
-        <v>370.00180548008638</v>
+        <v>315.8815210964986</v>
       </c>
       <c r="F24">
         <f t="shared" si="5"/>
-        <v>403.9159178650221</v>
+        <v>343.80274767015499</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
@@ -2888,7 +2868,7 @@
       </c>
       <c r="K24">
         <f>(SUM(D24:G24)-SUM($I$7:I24)-J24)*POWER(1-$B$1, C24-1)</f>
-        <v>323.59073791711933</v>
+        <v>275.82740759553104</v>
       </c>
     </row>
     <row r="25" spans="3:15">
@@ -2901,11 +2881,11 @@
       </c>
       <c r="E25">
         <f t="shared" si="4"/>
-        <v>399.60194991849335</v>
+        <v>337.99322757325353</v>
       </c>
       <c r="F25">
         <f t="shared" si="5"/>
-        <v>428.15087293692341</v>
+        <v>360.99288505366269</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
@@ -2921,7 +2901,7 @@
       </c>
       <c r="K25">
         <f>(SUM(D25:G25)-SUM($I$7:I25)-J25)*POWER(1-$B$1, C25-1)</f>
-        <v>328.7952733823808</v>
+        <v>277.64729233886004</v>
       </c>
     </row>
     <row r="26" spans="3:15">
@@ -2934,11 +2914,11 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" si="4"/>
-        <v>431.57010591197286</v>
+        <v>361.65275350338129</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="5"/>
-        <v>453.83992531313891</v>
+        <v>379.04252930634584</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1">
@@ -2955,7 +2935,7 @@
       </c>
       <c r="K26">
         <f>(SUM(D26:G26)-SUM($I$7:I26)-J26)*POWER(1-$B$1, C26-1)</f>
-        <v>334.11266500369504</v>
+        <v>279.50403334915899</v>
       </c>
     </row>
     <row r="27" spans="3:15">
@@ -2968,11 +2948,11 @@
       </c>
       <c r="E27">
         <f t="shared" si="4"/>
-        <v>466.09571438493066</v>
+        <v>386.96844624861797</v>
       </c>
       <c r="F27">
         <f t="shared" si="5"/>
-        <v>481.07032083192718</v>
+        <v>397.99465577166313</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
@@ -2988,7 +2968,7 @@
       </c>
       <c r="K27">
         <f>(SUM(D27:G27)-SUM($I$7:I27)-J27)*POWER(1-$B$1, C27-1)</f>
-        <v>339.545689808757</v>
+        <v>281.39822168441106</v>
       </c>
     </row>
     <row r="28" spans="3:15">
@@ -3001,11 +2981,11 @@
       </c>
       <c r="E28">
         <f t="shared" si="4"/>
-        <v>503.38337153572513</v>
+        <v>414.05623748602125</v>
       </c>
       <c r="F28">
         <f t="shared" si="5"/>
-        <v>509.93454008184295</v>
+        <v>417.89438856024628</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
@@ -3021,7 +3001,7 @@
       </c>
       <c r="K28">
         <f>(SUM(D28:G28)-SUM($I$7:I28)-J28)*POWER(1-$B$1, C28-1)</f>
-        <v>345.09719592735547</v>
+        <v>283.33045819773236</v>
       </c>
     </row>
     <row r="29" spans="3:15">
@@ -3034,11 +3014,11 @@
       </c>
       <c r="E29">
         <f t="shared" si="4"/>
-        <v>543.65404125858322</v>
+        <v>443.0401741100427</v>
       </c>
       <c r="F29">
         <f t="shared" si="5"/>
-        <v>540.53061248675351</v>
+        <v>438.78910798825859</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
@@ -3054,7 +3034,7 @@
       </c>
       <c r="K29">
         <f>(SUM(D29:G29)-SUM($I$7:I29)-J29)*POWER(1-$B$1, C29-1)</f>
-        <v>350.77010443232228</v>
+        <v>285.30135369888455</v>
       </c>
     </row>
     <row r="30" spans="3:15">
@@ -3067,11 +3047,11 @@
       </c>
       <c r="E30">
         <f t="shared" si="4"/>
-        <v>587.14636455926984</v>
+        <v>474.05298629774569</v>
       </c>
       <c r="F30">
         <f t="shared" si="5"/>
-        <v>572.96244923595884</v>
+        <v>460.72856338767161</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
@@ -3087,7 +3067,7 @@
       </c>
       <c r="K30">
         <f>(SUM(D30:G30)-SUM($I$7:I30)-J30)*POWER(1-$B$1, C30-1)</f>
-        <v>356.56741122829447</v>
+        <v>287.31152911845362</v>
       </c>
     </row>
     <row r="31" spans="3:15">
@@ -3100,11 +3080,11 @@
       </c>
       <c r="E31" s="4">
         <f t="shared" si="4"/>
-        <v>634.11807372401142</v>
+        <v>507.23669533858794</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" si="5"/>
-        <v>607.34019619011633</v>
+        <v>483.76499155705511</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4">
@@ -3121,7 +3101,7 @@
       </c>
       <c r="K31">
         <f>(SUM(D31:G31)-SUM($I$7:I31)-J31)*POWER(1-$B$1, C31-1)</f>
-        <v>362.49218898952688</v>
+        <v>289.3616156747367</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -3138,11 +3118,11 @@
       </c>
       <c r="E32">
         <f t="shared" si="4"/>
-        <v>684.84751962193252</v>
+        <v>542.74326401228916</v>
       </c>
       <c r="F32">
         <f t="shared" si="5"/>
-        <v>643.78060796152329</v>
+        <v>507.9532411349079</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
@@ -3158,7 +3138,7 @@
       </c>
       <c r="K32">
         <f>(SUM(D32:G32)-SUM($I$7:I32)-J32)*POWER(1-$B$1, C32-1)</f>
-        <v>368.54758914803637</v>
+        <v>291.45225504338384</v>
       </c>
     </row>
     <row r="33" spans="3:11">
@@ -3171,11 +3151,11 @@
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>739.63532119168701</v>
+        <v>580.73529249314925</v>
       </c>
       <c r="F33">
         <f t="shared" si="5"/>
-        <v>682.40744443921471</v>
+        <v>533.35090319165329</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
@@ -3191,7 +3171,7 @@
       </c>
       <c r="K33">
         <f>(SUM(D33:G33)-SUM($I$7:I33)-J33)*POWER(1-$B$1, C33-1)</f>
-        <v>374.73684393338067</v>
+        <v>293.58409952983862</v>
       </c>
     </row>
     <row r="34" spans="3:11">
@@ -3204,11 +3184,11 @@
       </c>
       <c r="E34">
         <f t="shared" si="4"/>
-        <v>798.80614688702201</v>
+        <v>621.38676296766994</v>
       </c>
       <c r="F34">
         <f t="shared" si="5"/>
-        <v>723.35189110556769</v>
+        <v>560.01844835123597</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
@@ -3224,7 +3204,7 @@
       </c>
       <c r="K34">
         <f>(SUM(D34:G34)-SUM($I$7:I34)-J34)*POWER(1-$B$1, C34-1)</f>
-        <v>381.0632684654164</v>
+        <v>295.7578122446244</v>
       </c>
     </row>
     <row r="35" spans="3:11">
@@ -3237,11 +3217,11 @@
       </c>
       <c r="E35">
         <f t="shared" si="4"/>
-        <v>862.71063863798383</v>
+        <v>664.88383637540664</v>
       </c>
       <c r="F35">
         <f t="shared" si="5"/>
-        <v>766.75300457190178</v>
+        <v>588.01937076879767</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
@@ -3257,7 +3237,7 @@
       </c>
       <c r="K35">
         <f>(SUM(D35:G35)-SUM($I$7:I35)-J35)*POWER(1-$B$1, C35-1)</f>
-        <v>387.53026290141332</v>
+        <v>297.97406728152265</v>
       </c>
     </row>
     <row r="36" spans="3:11">
@@ -3270,11 +3250,11 @@
       </c>
       <c r="E36">
         <f t="shared" si="4"/>
-        <v>931.72748972902252</v>
+        <v>711.42570492168511</v>
       </c>
       <c r="F36">
         <f t="shared" si="5"/>
-        <v>812.75818484621595</v>
+        <v>617.42033930723767</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
@@ -3290,7 +3270,7 @@
       </c>
       <c r="K36">
         <f>(SUM(D36:G36)-SUM($I$7:I36)-J36)*POWER(1-$B$1, C36-1)</f>
-        <v>394.14131463893762</v>
+        <v>300.23354989869273</v>
       </c>
     </row>
   </sheetData>
@@ -3341,7 +3321,7 @@
       <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="18">
+      <c r="H1">
         <f>'case1-average'!H1</f>
         <v>150</v>
       </c>
@@ -3357,7 +3337,7 @@
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="9">
         <f>'case1-average'!E2</f>
         <v>25</v>
       </c>
@@ -3368,12 +3348,12 @@
       </c>
       <c r="B3" s="6">
         <f>'case1-average'!B3</f>
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3383,25 +3363,21 @@
       </c>
       <c r="B4" s="6">
         <f>'case1-average'!B4</f>
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <f>'case1-average'!B5</f>
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
@@ -3435,8 +3411,8 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7">
         <v>1</v>
       </c>
@@ -3446,7 +3422,7 @@
       <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="14">
         <f>E1+H1</f>
         <v>150</v>
       </c>
@@ -3469,8 +3445,8 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8">
         <v>2</v>
       </c>
@@ -3484,7 +3460,7 @@
       </c>
       <c r="F8">
         <f>$F$7*POWER(1+$B$4, C8-1)</f>
-        <v>159</v>
+        <v>157.5</v>
       </c>
       <c r="H8">
         <f t="shared" ref="H8:H36" si="0">$E$1*$B$5/12*POWER(1+$B$5/12, $E$2*12)/(POWER(1+$B$5/12, $E$2*12)-1)</f>
@@ -3500,12 +3476,12 @@
       </c>
       <c r="K8">
         <f>(SUM(D8:G8)-SUM($I$7:I8)-J8)*POWER(1-$B$1, C8-1)</f>
-        <v>248.89999999999998</v>
+        <v>247.47499999999999</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9">
         <v>3</v>
       </c>
@@ -3519,7 +3495,7 @@
       </c>
       <c r="F9">
         <f>$F$7*POWER(1+$B$4, C9-1)</f>
-        <v>168.54000000000002</v>
+        <v>165.375</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
@@ -3535,12 +3511,12 @@
       </c>
       <c r="K9">
         <f>(SUM(D9:G9)-SUM($I$7:I9)-J9)*POWER(1-$B$1, C9-1)</f>
-        <v>247.85357499999998</v>
+        <v>244.99716249999997</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10">
         <v>4</v>
       </c>
@@ -3554,7 +3530,7 @@
       </c>
       <c r="F10">
         <f t="shared" ref="F10:F36" si="5">$F$7*POWER(1+$B$4, C10-1)</f>
-        <v>178.65240000000006</v>
+        <v>173.64375000000001</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
@@ -3570,7 +3546,7 @@
       </c>
       <c r="K10">
         <f>(SUM(D10:G10)-SUM($I$7:I10)-J10)*POWER(1-$B$1, C10-1)</f>
-        <v>246.8597826125</v>
+        <v>242.56549131874996</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -3587,7 +3563,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="5"/>
-        <v>189.37154400000006</v>
+        <v>182.32593750000001</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
@@ -3603,7 +3579,7 @@
       </c>
       <c r="K11">
         <f>(SUM(D11:G11)-SUM($I$7:I11)-J11)*POWER(1-$B$1, C11-1)</f>
-        <v>245.91770217765628</v>
+        <v>240.17901164836564</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -3620,7 +3596,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="5"/>
-        <v>200.73383664000008</v>
+        <v>191.44223437500003</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
@@ -3636,7 +3612,7 @@
       </c>
       <c r="K12">
         <f>(SUM(D12:G12)-SUM($I$7:I12)-J12)*POWER(1-$B$1, C12-1)</f>
-        <v>245.02643430640097</v>
+        <v>237.83676959491211</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -3653,7 +3629,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="5"/>
-        <v>212.77786683840009</v>
+        <v>201.01434609374999</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
@@ -3669,7 +3645,7 @@
       </c>
       <c r="K13">
         <f>(SUM(D13:G13)-SUM($I$7:I13)-J13)*POWER(1-$B$1, C13-1)</f>
-        <v>244.18510043345657</v>
+        <v>235.53783172886529</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -3686,7 +3662,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="5"/>
-        <v>225.54453884870412</v>
+        <v>211.06506339843753</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
@@ -3702,7 +3678,7 @@
       </c>
       <c r="K14">
         <f>(SUM(D14:G14)-SUM($I$7:I14)-J14)*POWER(1-$B$1, C14-1)</f>
-        <v>243.39284238003299</v>
+        <v>233.281284645238</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -3719,7 +3695,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="5"/>
-        <v>239.07721117962635</v>
+        <v>221.61831656835938</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
@@ -3735,7 +3711,7 @@
       </c>
       <c r="K15">
         <f>(SUM(D15:G15)-SUM($I$7:I15)-J15)*POWER(1-$B$1, C15-1)</f>
-        <v>242.64882192599927</v>
+        <v>231.06623453316226</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -3752,7 +3728,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="5"/>
-        <v>253.42184385040392</v>
+        <v>232.69923239677738</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
@@ -3768,7 +3744,7 @@
       </c>
       <c r="K16">
         <f>(SUM(D16:G16)-SUM($I$7:I16)-J16)*POWER(1-$B$1, C16-1)</f>
-        <v>241.95222039132722</v>
+        <v>228.89180675472667</v>
       </c>
     </row>
     <row r="17" spans="3:15">
@@ -3785,7 +3761,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="5"/>
-        <v>268.62715448142819</v>
+        <v>244.33419401661624</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
@@ -3801,7 +3777,7 @@
       </c>
       <c r="K17">
         <f>(SUM(D17:G17)-SUM($I$7:I17)-J17)*POWER(1-$B$1, C17-1)</f>
-        <v>241.30223822660787</v>
+        <v>226.75714543286742</v>
       </c>
     </row>
     <row r="18" spans="3:15">
@@ -3818,7 +3794,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="5"/>
-        <v>284.7447837503139</v>
+        <v>256.55090371744706</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
@@ -3834,7 +3810,7 @@
       </c>
       <c r="K18">
         <f>(SUM(D18:G18)-SUM($I$7:I18)-J18)*POWER(1-$B$1, C18-1)</f>
-        <v>240.69809461244574</v>
+        <v>224.66141304811964</v>
       </c>
     </row>
     <row r="19" spans="3:15">
@@ -3851,7 +3827,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="5"/>
-        <v>301.82947077533277</v>
+        <v>269.37844890331939</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
@@ -3867,7 +3843,7 @@
       </c>
       <c r="K19">
         <f>(SUM(D19:G19)-SUM($I$7:I19)-J19)*POWER(1-$B$1, C19-1)</f>
-        <v>240.13902706754209</v>
+        <v>222.60379004403882</v>
       </c>
     </row>
     <row r="20" spans="3:15">
@@ -3884,7 +3860,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="5"/>
-        <v>319.93923902185276</v>
+        <v>282.84737134848541</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
@@ -3900,7 +3876,7 @@
       </c>
       <c r="K20">
         <f>(SUM(D20:G20)-SUM($I$7:I20)-J20)*POWER(1-$B$1, C20-1)</f>
-        <v>239.62429106527875</v>
+        <v>220.58347444110464</v>
       </c>
     </row>
     <row r="21" spans="3:15">
@@ -3917,7 +3893,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="5"/>
-        <v>339.13559336316393</v>
+        <v>296.98973991590958</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
@@ -3933,7 +3909,7 @@
       </c>
       <c r="K21">
         <f>(SUM(D21:G21)-SUM($I$7:I21)-J21)*POWER(1-$B$1, C21-1)</f>
-        <v>239.15315965862189</v>
+        <v>218.59968145892594</v>
       </c>
     </row>
     <row r="22" spans="3:15">
@@ -3950,7 +3926,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="5"/>
-        <v>359.48372896495385</v>
+        <v>311.83922691170517</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
@@ -3966,7 +3942,7 @@
       </c>
       <c r="K22">
         <f>(SUM(D22:G22)-SUM($I$7:I22)-J22)*POWER(1-$B$1, C22-1)</f>
-        <v>238.72492311316691</v>
+        <v>216.65164314656846</v>
       </c>
     </row>
     <row r="23" spans="3:15">
@@ -3983,7 +3959,7 @@
       </c>
       <c r="F23">
         <f t="shared" si="5"/>
-        <v>381.05275270285097</v>
+        <v>327.43118825729039</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
@@ -3999,7 +3975,7 @@
       </c>
       <c r="K23">
         <f>(SUM(D23:G23)-SUM($I$7:I23)-J23)*POWER(1-$B$1, C23-1)</f>
-        <v>238.33888854814955</v>
+        <v>214.73860802082902</v>
       </c>
     </row>
     <row r="24" spans="3:15">
@@ -4016,7 +3992,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="5"/>
-        <v>403.9159178650221</v>
+        <v>343.80274767015499</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
@@ -4032,7 +4008,7 @@
       </c>
       <c r="K24">
         <f>(SUM(D24:G24)-SUM($I$7:I24)-J24)*POWER(1-$B$1, C24-1)</f>
-        <v>237.99437958525351</v>
+        <v>212.85984071228825</v>
       </c>
     </row>
     <row r="25" spans="3:15">
@@ -4049,7 +4025,7 @@
       </c>
       <c r="F25">
         <f t="shared" si="5"/>
-        <v>428.15087293692341</v>
+        <v>360.99288505366269</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
@@ -4065,7 +4041,7 @@
       </c>
       <c r="K25">
         <f>(SUM(D25:G25)-SUM($I$7:I25)-J25)*POWER(1-$B$1, C25-1)</f>
-        <v>237.69073600504601</v>
+        <v>211.01462161897132</v>
       </c>
     </row>
     <row r="26" spans="3:15">
@@ -4082,7 +4058,7 @@
       </c>
       <c r="F26" s="1">
         <f t="shared" si="5"/>
-        <v>453.83992531313891</v>
+        <v>379.04252930634584</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1">
@@ -4099,7 +4075,7 @@
       </c>
       <c r="K26">
         <f>(SUM(D26:G26)-SUM($I$7:I26)-J26)*POWER(1-$B$1, C26-1)</f>
-        <v>237.42731341087907</v>
+        <v>209.20224656745566</v>
       </c>
     </row>
     <row r="27" spans="3:15">
@@ -4116,7 +4092,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="5"/>
-        <v>481.07032083192718</v>
+        <v>397.99465577166313</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
@@ -4132,7 +4108,7 @@
       </c>
       <c r="K27">
         <f>(SUM(D27:G27)-SUM($I$7:I27)-J27)*POWER(1-$B$1, C27-1)</f>
-        <v>237.2034829000963</v>
+        <v>207.42202648126442</v>
       </c>
     </row>
     <row r="28" spans="3:15">
@@ -4149,7 +4125,7 @@
       </c>
       <c r="F28">
         <f t="shared" si="5"/>
-        <v>509.93454008184295</v>
+        <v>417.89438856024628</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
@@ -4165,7 +4141,7 @@
       </c>
       <c r="K28">
         <f>(SUM(D28:G28)-SUM($I$7:I28)-J28)*POWER(1-$B$1, C28-1)</f>
-        <v>237.0186307423883</v>
+        <v>205.67328705638877</v>
       </c>
     </row>
     <row r="29" spans="3:15">
@@ -4182,7 +4158,7 @@
       </c>
       <c r="F29">
         <f t="shared" si="5"/>
-        <v>540.53061248675351</v>
+        <v>438.78910798825859</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
@@ -4198,7 +4174,7 @@
       </c>
       <c r="K29">
         <f>(SUM(D29:G29)-SUM($I$7:I29)-J29)*POWER(1-$B$1, C29-1)</f>
-        <v>236.87215806514337</v>
+        <v>203.95536844378674</v>
       </c>
     </row>
     <row r="30" spans="3:15">
@@ -4215,7 +4191,7 @@
       </c>
       <c r="F30">
         <f t="shared" si="5"/>
-        <v>572.96244923595884</v>
+        <v>460.72856338767161</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
@@ -4231,7 +4207,7 @@
       </c>
       <c r="K30">
         <f>(SUM(D30:G30)-SUM($I$7:I30)-J30)*POWER(1-$B$1, C30-1)</f>
-        <v>236.76348054564539</v>
+        <v>202.26762493870794</v>
       </c>
     </row>
     <row r="31" spans="3:15">
@@ -4248,7 +4224,7 @@
       </c>
       <c r="F31" s="4">
         <f t="shared" si="5"/>
-        <v>607.34019619011633</v>
+        <v>483.76499155705511</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4">
@@ -4265,7 +4241,7 @@
       </c>
       <c r="K31">
         <f>(SUM(D31:G31)-SUM($I$7:I31)-J31)*POWER(1-$B$1, C31-1)</f>
-        <v>236.69202810996885</v>
+        <v>200.6094246766971</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -4286,7 +4262,7 @@
       </c>
       <c r="F32">
         <f t="shared" si="5"/>
-        <v>643.78060796152329</v>
+        <v>507.9532411349079</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
@@ -4302,7 +4278,7 @@
       </c>
       <c r="K32">
         <f>(SUM(D32:G32)-SUM($I$7:I32)-J32)*POWER(1-$B$1, C32-1)</f>
-        <v>236.65724463843168</v>
+        <v>198.98014933613408</v>
       </c>
     </row>
     <row r="33" spans="3:11">
@@ -4319,7 +4295,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="5"/>
-        <v>682.40744443921471</v>
+        <v>533.35090319165329</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
@@ -4335,7 +4311,7 @@
       </c>
       <c r="K33">
         <f>(SUM(D33:G33)-SUM($I$7:I33)-J33)*POWER(1-$B$1, C33-1)</f>
-        <v>236.65858767746244</v>
+        <v>197.37919384716824</v>
       </c>
     </row>
     <row r="34" spans="3:11">
@@ -4352,7 +4328,7 @@
       </c>
       <c r="F34">
         <f t="shared" si="5"/>
-        <v>723.35189110556769</v>
+        <v>560.01844835123597</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
@@ -4368,7 +4344,7 @@
       </c>
       <c r="K34">
         <f>(SUM(D34:G34)-SUM($I$7:I34)-J34)*POWER(1-$B$1, C34-1)</f>
-        <v>236.69552815774531</v>
+        <v>195.80596610691074</v>
       </c>
     </row>
     <row r="35" spans="3:11">
@@ -4385,7 +4361,7 @@
       </c>
       <c r="F35">
         <f t="shared" si="5"/>
-        <v>766.75300457190178</v>
+        <v>588.01937076879767</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
@@ -4401,7 +4377,7 @@
       </c>
       <c r="K35">
         <f>(SUM(D35:G35)-SUM($I$7:I35)-J35)*POWER(1-$B$1, C35-1)</f>
-        <v>236.76755011850952</v>
+        <v>194.25988670075009</v>
       </c>
     </row>
     <row r="36" spans="3:11">
@@ -4418,7 +4394,7 @@
       </c>
       <c r="F36">
         <f t="shared" si="5"/>
-        <v>812.75818484621595</v>
+        <v>617.42033930723767</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
@@ -4434,7 +4410,7 @@
       </c>
       <c r="K36">
         <f>(SUM(D36:G36)-SUM($I$7:I36)-J36)*POWER(1-$B$1, C36-1)</f>
-        <v>236.87415043783045</v>
+        <v>192.74038862965909</v>
       </c>
     </row>
   </sheetData>
